--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,230 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E7" s="2">
         <v>43833</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43462</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43098</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42734</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2718000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2696000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2578000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2371000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2313000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2715000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2991000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2835000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2803000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2914000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2632000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2406000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2674000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2894000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1938000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1907000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1747000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1712000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1921000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2078000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1931000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1956000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2037000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1896000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1740000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1858000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2003000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E10" s="3">
         <v>758000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>671000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>624000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>601000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>794000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>913000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>904000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>847000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>877000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>736000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>666000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>816000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>891000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E12" s="3">
         <v>250000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>255000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>241000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>238000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>246000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>266000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>259000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>254000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>250000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>263000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>288000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>324000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>305000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,75 +1004,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-63000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>51000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>48000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
       </c>
       <c r="F15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="3">
         <v>6000</v>
       </c>
       <c r="H15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I15" s="3">
         <v>5000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
       </c>
       <c r="J15" s="3">
         <v>6000</v>
@@ -1065,16 +1087,16 @@
         <v>6000</v>
       </c>
       <c r="L15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M15" s="3">
         <v>19000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>28000</v>
       </c>
       <c r="P15" s="3">
         <v>28000</v>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2342000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2312000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2305000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2039000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2077000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2299000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2488000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2330000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2362000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2481000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2377000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2210000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2408000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2524000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E18" s="3">
         <v>384000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>273000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>332000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>236000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>416000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>503000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>505000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>441000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>433000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>255000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>196000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>266000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>370000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,110 +1243,117 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>38000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>481000</v>
+      </c>
+      <c r="E21" s="3">
         <v>477000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>345000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>480000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>405000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>592000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>660000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>657000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>596000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>589000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>410000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>358000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>454000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>551000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>55000</v>
       </c>
       <c r="F22" s="3">
         <v>55000</v>
@@ -1323,84 +1362,90 @@
         <v>55000</v>
       </c>
       <c r="H22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>61000</v>
       </c>
       <c r="M22" s="3">
         <v>61000</v>
       </c>
       <c r="N22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="O22" s="3">
         <v>62000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>50000</v>
       </c>
       <c r="Q22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E23" s="3">
         <v>336000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>198000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>291000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>215000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>398000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>468000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>466000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>393000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>371000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>188000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>212000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>310000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,46 +1453,49 @@
         <v>18000</v>
       </c>
       <c r="E24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-692000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-307000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E26" s="3">
         <v>318000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>983000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>195000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>384000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>450000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>773000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>385000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>367000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>194000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>297000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E27" s="3">
         <v>318000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>983000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>195000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>384000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>450000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>773000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>385000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>367000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>181000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>194000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>297000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1645,11 +1705,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1657,17 +1717,17 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-312000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-38000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E33" s="3">
         <v>318000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>983000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>195000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>384000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>450000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>461000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>381000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>159000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>181000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>297000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E35" s="3">
         <v>318000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>983000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>195000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>384000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>450000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>461000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>381000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>159000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>181000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>297000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E38" s="2">
         <v>43833</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43462</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43098</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42734</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2138,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1744000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1784000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2220000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1388000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1357000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1942000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1853000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2926000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2556000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2285000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2539000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3026000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,198 +2234,213 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1112000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1065000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>989000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>897000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1058000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1202000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1184000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1076000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1055000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1209000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1199000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1156000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1211000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1148000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1041000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>970000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1001000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1097000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1116000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1053000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1014000</v>
       </c>
       <c r="M44" s="3">
         <v>1014000</v>
       </c>
       <c r="N44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="O44" s="3">
         <v>982000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1038000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1008000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E45" s="3">
         <v>148000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>141000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>184000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>201000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>164000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>263000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>220000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>243000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>285000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>316000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>321000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>240000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>205000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4015000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4152000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4031000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4363000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3487000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3676000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4523000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4310000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5247000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4910000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4824000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5041000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5460000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4140000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,23 +2450,23 @@
       <c r="E47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>1318000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1300000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1259000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>24</v>
@@ -2382,102 +2486,111 @@
       <c r="Q47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2158000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2102000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1869000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1822000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1823000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1789000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1792000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1720000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1762000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1817000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1875000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1911000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2012000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1320000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1334000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1348000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1366000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1386000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1406000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1425000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1442000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1460000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1492000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1519000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1560000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1601000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1302000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1271000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1305000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>603000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>604000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>601000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>608000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>603000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>618000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>823000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>833000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>808000</v>
       </c>
       <c r="P52" s="3">
         <v>808000</v>
       </c>
       <c r="Q52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="R52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8829000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8932000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8738000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8885000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8596000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8789000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9578000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9410000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9012000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8750000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8956000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9268000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9739000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8561000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,67 +2878,71 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1830000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1870000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1750000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1420000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1310000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1442000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1776000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1728000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1645000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1620000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1539000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1626000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1591000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2817,222 +2950,237 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>499000</v>
       </c>
       <c r="K58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="L58" s="3">
         <v>503000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>560000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" s="3">
         <v>158000</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E59" s="3">
         <v>824000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>799000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>812000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>836000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>858000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>963000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>907000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>933000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>919000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1040000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1050000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2690000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2549000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2232000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2146000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3175000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3190000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3055000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3113000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2458000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2626000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2789000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2681000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4091000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4140000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4253000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4522000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4324000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4322000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4320000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4319000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4316000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5002000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5021000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5073000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4093000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E62" s="3">
         <v>267000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>279000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>238000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>239000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>235000</v>
       </c>
       <c r="J62" s="3">
         <v>235000</v>
       </c>
       <c r="K62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="L62" s="3">
         <v>274000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>260000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>254000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>257000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>264000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7037000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7102000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6968000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6723000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6907000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6855000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7732000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7745000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7648000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7689000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7714000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7904000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8131000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7038000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4866000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1830000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1770000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2162000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1689000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1934000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1846000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1665000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1364000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1061000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1242000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1364000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1608000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1523000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E80" s="2">
         <v>43833</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43462</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43098</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42734</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E81" s="3">
         <v>318000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>983000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>195000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>384000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>450000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>461000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>381000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>159000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>181000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>297000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>92000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>134000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>135000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>138000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>134000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>137000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>143000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>157000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>161000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>176000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>182000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>191000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E89" s="3">
         <v>480000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>456000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>448000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>438000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>288000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>587000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>468000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>558000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>850000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>237000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>243000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>426000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>655000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-194000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-147000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-151000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-147000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-127000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-177000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-96000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-124000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-104000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-94000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-234000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-151000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1205000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-176000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-132000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-122000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4613,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-165000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-170000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-174000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-178000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-181000</v>
       </c>
       <c r="J96" s="3">
         <v>-181000</v>
       </c>
       <c r="K96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-179000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-182000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-184000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-187000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-186000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4811,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-289000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-765000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-795000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-276000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-815000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-326000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-184000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-162000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-502000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-363000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-617000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>984000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-465000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>860000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-585000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>88000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>370000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>271000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-254000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-488000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1311000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>224000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,242 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E7" s="2">
         <v>43924</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43833</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43462</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43098</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42734</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2517000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2718000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2696000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2578000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2371000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2313000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2715000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2991000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2835000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2803000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2914000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2632000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2406000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2674000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2894000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1972000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1938000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1907000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1747000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1712000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1921000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2078000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1931000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1956000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2037000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1896000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1740000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1858000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2003000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E10" s="3">
         <v>746000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>758000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>671000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>624000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>601000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>794000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>913000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>904000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>847000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>877000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>736000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>666000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>816000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>891000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,58 +919,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E12" s="3">
         <v>246000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>250000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>255000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>241000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>238000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>246000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>266000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>259000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>254000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>250000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>263000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>288000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>324000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>305000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,58 +1023,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-63000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>51000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>48000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,22 +1088,22 @@
         <v>3000</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="3">
         <v>4000</v>
       </c>
       <c r="G15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="3">
         <v>6000</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
         <v>5000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6000</v>
       </c>
       <c r="K15" s="3">
         <v>6000</v>
@@ -1090,16 +1112,16 @@
         <v>6000</v>
       </c>
       <c r="M15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N15" s="3">
         <v>19000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>28000</v>
       </c>
       <c r="Q15" s="3">
         <v>28000</v>
@@ -1107,8 +1129,11 @@
       <c r="R15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1149,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2342000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2312000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2305000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2039000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2077000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2299000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2488000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2330000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2362000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2481000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2377000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2210000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2408000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2524000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E18" s="3">
         <v>376000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>384000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>273000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>332000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>236000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>416000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>503000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>505000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>441000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>433000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>255000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>196000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>266000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>370000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,108 +1276,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>38000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E21" s="3">
         <v>481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>477000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>345000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>480000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>405000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>592000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>660000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>657000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>596000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>589000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>410000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>358000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>454000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>551000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,10 +1392,10 @@
         <v>49000</v>
       </c>
       <c r="E22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F22" s="3">
         <v>48000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>55000</v>
       </c>
       <c r="G22" s="3">
         <v>55000</v>
@@ -1365,137 +1404,146 @@
         <v>55000</v>
       </c>
       <c r="I22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>61000</v>
       </c>
       <c r="N22" s="3">
         <v>61000</v>
       </c>
       <c r="O22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="P22" s="3">
         <v>62000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>50000</v>
       </c>
       <c r="R22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E23" s="3">
         <v>338000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>336000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>198000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>291000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>215000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>398000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>468000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>466000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>393000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>371000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>188000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>120000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>212000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>310000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>-6000</v>
       </c>
       <c r="E24" s="3">
         <v>18000</v>
       </c>
       <c r="F24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-692000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-307000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,108 +1592,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E26" s="3">
         <v>320000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>318000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>983000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>195000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>384000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>450000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>773000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>367000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>194000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>297000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E27" s="3">
         <v>320000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>318000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>983000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>195000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>384000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>450000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>773000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>385000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>367000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>181000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>297000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1694,13 +1751,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -1708,11 +1768,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1720,17 +1780,17 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-312000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1744,8 +1804,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1910,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-38000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E33" s="3">
         <v>320000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>318000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>983000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>195000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>384000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>450000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>461000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>381000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>159000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>181000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>297000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2069,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E35" s="3">
         <v>320000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>318000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>983000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>195000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>384000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>450000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>461000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>381000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>159000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>181000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>297000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E38" s="2">
         <v>43924</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43833</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43462</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43098</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42734</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2224,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1612000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1744000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1784000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2220000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1388000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1357000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1942000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1853000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2926000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2556000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2539000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3026000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1716000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,210 +2326,225 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1160000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1112000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1065000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>989000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>897000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1058000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1202000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1184000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1076000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1055000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1209000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1199000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1211000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1102000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1148000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1041000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>970000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1001000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1097000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1116000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1053000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1014000</v>
       </c>
       <c r="N44" s="3">
         <v>1014000</v>
       </c>
       <c r="O44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="P44" s="3">
         <v>982000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1038000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1008000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E45" s="3">
         <v>141000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>141000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>184000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>201000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>164000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>263000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>243000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>285000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>316000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>321000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>240000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>205000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4114000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4015000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4152000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4031000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4363000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3487000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3676000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4523000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4310000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5247000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4910000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4824000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5041000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5460000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4140000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2453,23 +2557,23 @@
       <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>1318000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1300000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1259000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>24</v>
@@ -2489,108 +2593,117 @@
       <c r="R47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2232000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2158000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2102000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1869000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1822000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1823000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1789000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1792000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1720000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1762000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1817000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1875000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1911000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2012000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1295000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1307000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1320000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1334000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1348000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1366000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1386000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1406000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1425000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1442000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1460000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1492000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1519000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1560000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1601000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2805,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1307000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1302000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1271000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1305000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>603000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>604000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>601000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>608000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>603000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>618000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>823000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>833000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>808000</v>
       </c>
       <c r="Q52" s="3">
         <v>808000</v>
       </c>
       <c r="R52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="S52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2911,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8930000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8829000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8932000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8738000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8885000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8596000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8789000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9578000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9410000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9012000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8750000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8956000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9268000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9739000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8561000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,73 +3008,77 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1808000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1830000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1870000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1750000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1420000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1310000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1442000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1776000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1728000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1645000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1620000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1539000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1626000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1631000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2953,234 +3086,249 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>499000</v>
       </c>
       <c r="L58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="M58" s="3">
         <v>503000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>560000</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="3">
         <v>158000</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E59" s="3">
         <v>848000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>824000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>799000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>812000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>836000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>858000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>963000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>907000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>933000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>919000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1050000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2722000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2690000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2549000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2232000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2146000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3175000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3190000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3055000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3113000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2458000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2626000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2789000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2681000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4156000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4091000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4140000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4253000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4522000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4324000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4322000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4320000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4319000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4316000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5002000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5021000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5073000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4093000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E62" s="3">
         <v>256000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>267000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>279000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>238000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>239000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>231000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>235000</v>
       </c>
       <c r="K62" s="3">
         <v>235000</v>
       </c>
       <c r="L62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="M62" s="3">
         <v>274000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>260000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>254000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>257000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>264000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3279,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3483,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7143000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7037000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7102000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6968000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6723000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6907000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6855000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7732000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7745000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7648000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7689000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7714000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7904000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8131000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7038000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3769,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4904000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3981,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1792000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1830000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1770000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2162000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1689000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1934000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1846000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1665000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1364000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1061000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1242000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1364000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1608000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1523000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4087,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44015</v>
+      </c>
+      <c r="E80" s="2">
         <v>43924</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43833</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43462</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43098</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42734</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E81" s="3">
         <v>320000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>318000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>983000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>195000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>384000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>450000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>461000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>381000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>159000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>181000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>297000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4221,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>92000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>134000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>135000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>138000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>134000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>143000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>157000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>161000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>176000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>182000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>191000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4537,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>390000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>480000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>456000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>448000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>438000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>288000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>587000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>468000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>558000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>850000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>237000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>243000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>426000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>655000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4613,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-130000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-194000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-147000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-151000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-147000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-127000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-177000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-96000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-124000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-104000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-96000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4770,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-142000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-234000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-151000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1205000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-176000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-122000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-95000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,58 +4846,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-170000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-165000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-170000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-174000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-178000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-181000</v>
       </c>
       <c r="K96" s="3">
         <v>-181000</v>
       </c>
       <c r="L96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-179000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-182000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-184000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-187000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-186000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-188000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5056,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-374000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-289000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-765000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-795000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-276000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-815000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-326000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-162000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-502000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-363000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-617000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>984000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-324000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-132000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-465000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>860000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-585000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>88000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>370000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>271000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-254000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-488000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1311000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>224000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,266 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F7" s="2">
         <v>44015</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43924</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43833</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43462</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43098</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2517000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2718000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2696000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2578000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2371000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2313000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2715000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2991000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2835000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2803000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2914000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2632000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2406000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2674000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2894000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1850000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1972000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1938000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1907000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1747000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1712000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1921000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2078000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1931000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1956000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2037000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1896000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1740000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1858000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2003000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>596000</v>
+      </c>
+      <c r="F10" s="3">
         <v>667000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>746000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>758000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>671000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>624000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>601000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>794000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>913000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>904000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>847000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>877000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>736000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>666000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>816000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>891000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,61 +944,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F12" s="3">
         <v>222000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>246000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>250000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>255000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>241000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>238000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>246000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>266000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>259000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>254000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>250000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>263000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>288000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>324000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>305000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,61 +1058,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>63000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-63000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>33000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>51000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>48000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>33000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1091,49 +1135,55 @@
         <v>3000</v>
       </c>
       <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5000</v>
       </c>
       <c r="K15" s="3">
         <v>6000</v>
       </c>
       <c r="L15" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M15" s="3">
         <v>6000</v>
       </c>
       <c r="N15" s="3">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O15" s="3">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P15" s="3">
         <v>19000</v>
       </c>
       <c r="Q15" s="3">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="R15" s="3">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="S15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1200,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2063000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2250000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2342000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2312000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2305000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2039000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2077000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2299000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2488000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2330000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2362000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2481000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2377000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2210000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2408000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2524000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>251000</v>
+      </c>
+      <c r="F18" s="3">
         <v>267000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>376000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>384000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>273000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>332000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>236000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>416000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>503000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>505000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>441000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>433000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>255000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>196000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>266000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>370000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,273 +1341,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-58000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>38000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>370000</v>
+      </c>
+      <c r="F21" s="3">
         <v>309000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>481000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>477000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>345000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>480000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>405000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>592000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>660000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>657000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>596000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>589000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>410000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>358000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>454000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>551000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="3">
         <v>49000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>49000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>55000</v>
       </c>
       <c r="I22" s="3">
         <v>55000</v>
       </c>
       <c r="J22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>58000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>61000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>61000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>62000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>50000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>221000</v>
+      </c>
+      <c r="F23" s="3">
         <v>160000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>338000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>336000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>198000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>291000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>215000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>398000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>468000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>466000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>393000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>371000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>188000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>120000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>212000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>310000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-692000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>20000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-307000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,114 +1691,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F26" s="3">
         <v>166000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>320000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>318000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>983000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>195000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>384000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>450000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>773000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>367000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>181000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>114000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>194000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>297000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F27" s="3">
         <v>166000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>320000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>318000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>983000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>195000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>384000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>450000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>773000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>385000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>367000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>181000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>114000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>194000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>297000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1754,49 +1868,55 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-312000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1807,8 +1927,14 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1986,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,114 +2045,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F32" s="3">
         <v>58000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-38000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F33" s="3">
         <v>166000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>320000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>318000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>983000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>195000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>384000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>450000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>461000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>381000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>159000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>181000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>114000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>297000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2222,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F35" s="3">
         <v>166000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>320000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>318000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>983000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>195000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>384000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>450000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>461000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>381000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>159000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>181000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>114000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>297000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F38" s="2">
         <v>44015</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43924</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43833</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43462</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43098</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42734</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2372,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,61 +2395,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1799000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1722000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1612000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1744000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1784000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2220000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1388000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1357000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1942000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1853000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2926000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2556000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2285000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2539000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3026000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1716000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,222 +2507,252 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>866000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1115000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1160000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1112000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1065000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>989000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>897000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1058000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1202000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1184000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1076000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1055000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1209000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1199000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1156000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1211000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1142000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1102000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1148000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1041000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>970000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1001000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1097000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1116000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1053000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1002000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1014000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1014000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>982000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1038000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1008000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135000</v>
+        <v>163000</v>
       </c>
       <c r="E45" s="3">
         <v>141000</v>
       </c>
       <c r="F45" s="3">
-        <v>148000</v>
+        <v>135000</v>
       </c>
       <c r="G45" s="3">
         <v>141000</v>
       </c>
       <c r="H45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>141000</v>
+      </c>
+      <c r="J45" s="3">
         <v>184000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>201000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>164000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>263000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>220000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>243000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>285000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>316000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>321000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>240000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>205000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4081000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3994000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4114000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4015000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4152000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4031000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4363000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3487000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3676000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4523000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4310000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5247000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4910000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4824000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5041000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5460000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4140000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2560,26 +2768,26 @@
       <c r="G47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1318000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1300000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1259000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>24</v>
@@ -2596,114 +2804,132 @@
       <c r="S47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2323000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2232000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2200000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2158000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2102000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1869000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1822000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1823000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1789000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1792000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1720000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1762000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1817000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1911000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2012000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1277000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1295000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1307000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1320000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1334000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1348000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1366000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1386000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1406000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1425000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1442000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1460000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1492000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1519000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1560000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1601000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2981,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,61 +3040,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1289000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1307000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1302000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1271000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1305000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>603000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>604000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>601000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>608000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>603000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>618000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>823000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>833000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>808000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>808000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,61 +3158,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8986000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8862000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8930000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8829000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8932000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8738000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8885000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8596000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8789000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9578000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9410000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9012000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8750000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8956000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9268000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9739000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8561000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3244,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,326 +3267,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1730000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1795000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1808000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1830000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1870000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1750000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1420000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1310000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1442000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1776000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1728000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1645000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1620000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1539000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1591000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1631000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F58" s="3">
         <v>19000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>499000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>499000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>503000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>560000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>158000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>824000</v>
+      </c>
+      <c r="F59" s="3">
         <v>895000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>848000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>824000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>799000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>812000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>836000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>858000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>963000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>907000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>933000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>919000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1040000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1050000</v>
       </c>
       <c r="S59" s="3">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2621000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2644000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2722000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2690000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2700000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2549000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2232000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2146000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3175000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3190000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3055000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3113000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2458000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2626000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2789000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2681000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5120000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4138000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4156000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4091000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4135000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4140000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4253000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4522000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4324000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4322000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4320000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4319000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4316000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5002000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5021000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5073000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4093000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>259000</v>
+      </c>
+      <c r="F62" s="3">
         <v>265000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>256000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>267000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>279000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>238000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>239000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>231000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>235000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>235000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>274000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>260000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>254000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>257000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>264000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3676,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3433,8 +3735,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,61 +3794,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7996000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7041000</v>
+      </c>
+      <c r="F66" s="3">
         <v>7143000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7037000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7102000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6968000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6723000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6907000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6855000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7732000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7745000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7648000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7689000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7714000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7904000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8131000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7038000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3880,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3935,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3994,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +4053,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,61 +4112,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5829000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4947000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4230,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4289,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,61 +4348,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1821000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1787000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1792000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1830000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1770000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2162000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1689000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1934000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1846000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1665000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1364000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1061000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1242000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1608000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1523000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4466,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44106</v>
+      </c>
+      <c r="F80" s="2">
         <v>44015</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43924</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43833</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43462</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43098</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42734</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F81" s="3">
         <v>166000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>320000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>318000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>983000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>195000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>384000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>450000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>461000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>381000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>159000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>181000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>114000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>297000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,61 +4616,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F83" s="3">
         <v>100000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>92000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>134000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>135000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>138000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>134000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>143000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>157000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>161000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>176000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>182000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>191000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4730,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4789,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4848,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4907,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4966,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>297000</v>
+      </c>
+      <c r="F89" s="3">
         <v>388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>390000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>480000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>456000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>448000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>438000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>288000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>587000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>468000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>558000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>850000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>237000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>243000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>426000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>655000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,61 +5052,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-114000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-130000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-194000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-151000</v>
       </c>
       <c r="I91" s="3">
         <v>-147000</v>
       </c>
       <c r="J91" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-127000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-177000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-96000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-124000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-94000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-96000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5166,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,61 +5225,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-142000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-234000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-151000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1205000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-129000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-176000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-132000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-103000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-95000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,61 +5311,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-168000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-170000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-165000</v>
       </c>
       <c r="G96" s="3">
         <v>-170000</v>
       </c>
       <c r="H96" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-174000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-178000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-180000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-181000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-181000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-179000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-182000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-184000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-187000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-186000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-188000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5425,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5484,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,163 +5543,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-179000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-177000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-374000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-289000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-765000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-795000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-276000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-815000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-326000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-184000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-162000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-502000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-363000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-617000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>984000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-324000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-8000</v>
       </c>
       <c r="M101" s="3">
         <v>3000</v>
       </c>
       <c r="N101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P101" s="3">
         <v>1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>8000</v>
       </c>
       <c r="Q101" s="3">
         <v>4000</v>
       </c>
       <c r="R101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-12000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F102" s="3">
         <v>110000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-132000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-40000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-465000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>860000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>31000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-585000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>88000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>370000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>271000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-254000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-488000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1311000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>224000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,266 +665,278 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E7" s="2">
         <v>44197</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44106</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44015</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43924</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43833</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43742</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43462</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43098</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42734</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2731000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2623000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2314000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2517000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2718000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2696000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2578000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2371000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2313000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2715000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2991000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2835000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2803000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2914000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2632000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2406000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2674000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2894000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1927000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1718000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1850000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1972000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1938000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1907000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1747000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1712000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1921000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2078000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1931000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1956000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2037000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1896000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1740000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1858000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2003000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>740000</v>
+      </c>
+      <c r="E10" s="3">
         <v>696000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>596000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>667000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>746000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>758000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>671000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>624000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>601000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>794000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>913000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>904000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>847000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>877000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>736000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>666000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>816000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>891000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,67 +958,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E12" s="3">
         <v>221000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>223000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>222000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>246000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>250000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>255000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>241000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>238000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>246000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>266000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>259000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>254000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>250000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>263000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>288000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>324000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>305000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,67 +1080,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>63000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-63000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>51000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>48000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>33000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,22 +1163,22 @@
         <v>3000</v>
       </c>
       <c r="H15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I15" s="3">
         <v>4000</v>
       </c>
       <c r="J15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="K15" s="3">
         <v>6000</v>
       </c>
       <c r="L15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M15" s="3">
         <v>5000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>6000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
@@ -1165,16 +1187,16 @@
         <v>6000</v>
       </c>
       <c r="P15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>19000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>28000</v>
       </c>
       <c r="T15" s="3">
         <v>28000</v>
@@ -1182,8 +1204,11 @@
       <c r="U15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1227,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2275000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2063000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2250000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2342000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2312000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2305000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2039000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2077000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2299000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2488000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2330000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2362000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2481000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2377000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2210000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2408000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2524000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E18" s="3">
         <v>348000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>251000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>267000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>376000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>384000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>273000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>332000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>236000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>416000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>503000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>505000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>441000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>433000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>255000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>196000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>266000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>370000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1343,146 +1375,153 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-58000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>38000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-10000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E21" s="3">
         <v>439000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>370000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>309000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>481000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>477000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>345000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>480000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>405000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>592000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>660000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>657000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>596000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>589000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>410000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>358000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>454000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>551000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>49000</v>
       </c>
       <c r="G22" s="3">
         <v>49000</v>
       </c>
       <c r="H22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I22" s="3">
         <v>48000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>55000</v>
       </c>
       <c r="J22" s="3">
         <v>55000</v>
@@ -1491,155 +1530,164 @@
         <v>55000</v>
       </c>
       <c r="L22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>61000</v>
       </c>
       <c r="Q22" s="3">
         <v>61000</v>
       </c>
       <c r="R22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="S22" s="3">
         <v>62000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>50000</v>
       </c>
       <c r="U22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E23" s="3">
         <v>291000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>221000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>160000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>338000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>336000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>198000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>291000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>398000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>468000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>466000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>393000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>371000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>188000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>212000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>310000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>18000</v>
       </c>
       <c r="H24" s="3">
         <v>18000</v>
       </c>
       <c r="I24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-692000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-307000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1697,126 +1745,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E26" s="3">
         <v>280000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>223000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>166000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>320000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>318000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>983000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>384000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>450000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>773000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>385000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>367000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>194000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>297000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E27" s="3">
         <v>280000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>223000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>166000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>320000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>318000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>983000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>195000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>384000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>450000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>773000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>385000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>367000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>181000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>194000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>297000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1874,8 +1931,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1885,11 +1945,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1897,11 +1957,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1909,17 +1969,17 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-312000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1933,8 +1993,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,126 +2117,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>58000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-38000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>10000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E33" s="3">
         <v>280000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>223000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>166000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>320000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>318000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>983000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>195000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>384000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>450000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>461000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>381000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>159000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>181000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>194000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>297000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,131 +2303,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E35" s="3">
         <v>280000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>223000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>166000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>320000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>318000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>983000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>195000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>384000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>450000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>461000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>381000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>159000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>181000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>194000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>297000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E38" s="2">
         <v>44197</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44106</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44015</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43924</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43833</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43742</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43462</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43098</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42734</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,67 +2482,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1799000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1664000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1722000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1612000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1744000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1784000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2220000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1388000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1357000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1942000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1853000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2926000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2556000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2285000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2539000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3026000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1716000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,284 +2602,299 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E43" s="3">
         <v>801000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>866000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1115000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1160000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1112000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1065000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>989000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>897000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1058000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1202000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1184000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1076000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1209000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1199000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1156000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1211000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1281000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1318000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1323000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1142000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1102000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1148000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1041000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>970000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1001000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1097000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1116000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1053000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1014000</v>
       </c>
       <c r="Q44" s="3">
         <v>1014000</v>
       </c>
       <c r="R44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="S44" s="3">
         <v>982000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1038000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1008000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E45" s="3">
         <v>163000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>141000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>135000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>141000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>148000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>141000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>164000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>263000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>220000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>243000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>285000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>316000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>321000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>240000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>205000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3692000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4081000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3994000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4114000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4015000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4152000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4031000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4363000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3487000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3676000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4523000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4310000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5247000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4910000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4824000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5041000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5460000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4140000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1318000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1300000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1259000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>24</v>
@@ -2810,126 +2914,135 @@
       <c r="U47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2323000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2270000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2232000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2158000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2102000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1869000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1822000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1823000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1789000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1792000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1720000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1762000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1817000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1875000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1911000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2012000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1272000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1277000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1282000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1295000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1307000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1320000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1334000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1348000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1366000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1386000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1406000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1425000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1442000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1460000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1492000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1519000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1560000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1601000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,67 +3162,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1305000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1316000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1289000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1307000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1302000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1271000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1305000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>603000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>604000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>601000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>608000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>603000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>618000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>823000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>833000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>808000</v>
       </c>
       <c r="T52" s="3">
         <v>808000</v>
       </c>
       <c r="U52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="V52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,67 +3286,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8604000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8986000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8862000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8930000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8829000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8932000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8738000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8885000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8596000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8789000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9578000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9410000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9012000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8750000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8956000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9268000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9739000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8561000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,88 +3398,92 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1730000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1795000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1808000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1830000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1870000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1750000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1420000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1310000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1442000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1776000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1728000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1645000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1620000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1539000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1626000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1591000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1631000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="E58" s="3">
         <v>25000</v>
       </c>
       <c r="F58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G58" s="3">
         <v>19000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3361,270 +3494,285 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>499000</v>
       </c>
       <c r="O58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="P58" s="3">
         <v>503000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>560000</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="3">
         <v>158000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E59" s="3">
         <v>866000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>824000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>895000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>848000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>824000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>799000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>812000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>836000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>858000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>963000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>907000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>933000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>919000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1040000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1050000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2993000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2621000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2644000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2722000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2690000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2549000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2232000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2146000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3175000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3190000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3055000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3113000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2458000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2626000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2789000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2681000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4897000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5120000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4138000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4156000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4091000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4135000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4140000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4253000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4522000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4324000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4322000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4320000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4319000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4316000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5002000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5021000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5073000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4093000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E62" s="3">
         <v>255000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>259000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>265000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>256000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>267000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>279000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>238000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>239000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>231000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>235000</v>
       </c>
       <c r="N62" s="3">
         <v>235000</v>
       </c>
       <c r="O62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="P62" s="3">
         <v>274000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>260000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>254000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>257000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>269000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>264000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3741,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,67 +3954,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8120000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7996000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7041000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7143000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7037000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7102000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6968000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6723000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6907000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6855000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7732000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7745000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7648000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7689000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7714000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7904000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8131000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7038000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,67 +4288,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6417000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,67 +4536,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E76" s="3">
         <v>990000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1821000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1787000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1792000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1830000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1770000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2162000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1689000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1934000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1846000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1665000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1364000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1061000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1242000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1364000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1608000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1523000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,131 +4660,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="E80" s="2">
         <v>44197</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44106</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44015</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43924</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43833</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43742</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43462</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43098</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42734</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E81" s="3">
         <v>280000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>223000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>166000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>320000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>318000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>983000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>195000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>384000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>450000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>461000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>381000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>159000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>181000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>194000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>297000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,67 +4815,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E83" s="3">
         <v>96000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>92000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>134000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>138000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>134000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>143000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>157000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>161000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>176000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>182000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>191000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,67 +5185,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E89" s="3">
         <v>473000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>297000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>390000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>480000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>456000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>448000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>438000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>288000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>587000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>468000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>558000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>850000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>237000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>243000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>426000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>655000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,67 +5273,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-159000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-111000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-114000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-130000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-194000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-147000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-151000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-147000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-177000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-96000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-124000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-104000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-94000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-96000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,67 +5457,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-159000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-142000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-234000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-151000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1205000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-176000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-132000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-122000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-103000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-95000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,67 +5545,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-167000</v>
+        <v>-161000</v>
       </c>
       <c r="E96" s="3">
         <v>-167000</v>
       </c>
       <c r="F96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-168000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-170000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-165000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-170000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-174000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-178000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-181000</v>
       </c>
       <c r="N96" s="3">
         <v>-181000</v>
       </c>
       <c r="O96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-179000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-182000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-184000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-187000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-186000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-188000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,67 +5791,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-868000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-179000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-251000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-177000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-374000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-289000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-765000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-795000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-276000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-815000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-326000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-184000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-502000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-363000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-617000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>984000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-324000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5620,110 +5868,116 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-12000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-587000</v>
+      </c>
+      <c r="E102" s="3">
         <v>135000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-132000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-465000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>860000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-585000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>370000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>271000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-254000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-488000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1311000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>224000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,278 +665,302 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44197</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44106</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44015</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43924</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43833</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43742</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43462</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43098</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42734</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3115000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3013000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2731000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2623000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2314000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2517000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2718000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2696000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2578000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2371000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2313000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2715000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2991000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2835000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2803000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2914000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2632000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2406000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2674000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2894000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1991000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1927000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1718000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1850000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1972000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1938000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1907000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1747000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1712000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1921000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2078000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1931000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1956000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2037000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1896000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1740000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1858000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2003000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>956000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>885000</v>
+      </c>
+      <c r="F10" s="3">
         <v>740000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>696000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>596000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>667000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>746000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>758000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>671000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>624000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>601000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>794000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>913000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>904000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>847000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>877000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>736000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>666000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>816000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>891000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,70 +983,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>232000</v>
+      </c>
+      <c r="F12" s="3">
         <v>227000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>221000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>223000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>222000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>246000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>250000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>255000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>241000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>238000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>246000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>266000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>259000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>254000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>250000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>263000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>288000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>324000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>305000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,70 +1115,82 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>63000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-63000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>23000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-6000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>33000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>51000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>48000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>33000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,49 +1210,55 @@
         <v>3000</v>
       </c>
       <c r="I15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>6000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
       </c>
       <c r="O15" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P15" s="3">
         <v>6000</v>
       </c>
       <c r="Q15" s="3">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="R15" s="3">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="S15" s="3">
         <v>19000</v>
       </c>
       <c r="T15" s="3">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="U15" s="3">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="V15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,132 +1278,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2345000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2275000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2063000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2250000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2342000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2312000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2305000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2039000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2077000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2299000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2488000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2330000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2362000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2481000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2377000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2210000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2408000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2524000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>507000</v>
+      </c>
+      <c r="F18" s="3">
         <v>386000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>348000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>251000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>267000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>376000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>384000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>273000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>332000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>236000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>416000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>503000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>505000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>441000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>433000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>255000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>196000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>266000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>370000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1376,132 +1440,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-58000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>38000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>23000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-10000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>659000</v>
+      </c>
+      <c r="F21" s="3">
         <v>497000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>439000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>370000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>309000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>481000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>477000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>345000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>480000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>405000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>592000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>660000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>657000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>596000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>589000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>410000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>358000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>454000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>551000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1509,185 +1587,203 @@
         <v>59000</v>
       </c>
       <c r="E22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>49000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>49000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>55000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>55000</v>
       </c>
       <c r="L22" s="3">
         <v>55000</v>
       </c>
       <c r="M22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O22" s="3">
         <v>56000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>58000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>54000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>61000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>61000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>62000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>60000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>50000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>497000</v>
+      </c>
+      <c r="F23" s="3">
         <v>339000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>291000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>221000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>160000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>338000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>336000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>198000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>291000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>215000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>398000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>468000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>466000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>393000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>371000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>188000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>120000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>212000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>310000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-692000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>20000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-307000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1748,132 +1844,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F26" s="3">
         <v>329000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>280000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>223000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>166000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>320000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>318000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>983000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>195000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>384000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>450000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>773000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>385000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>367000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>181000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>114000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>194000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>297000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F27" s="3">
         <v>329000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>280000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>223000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>166000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>320000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>318000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>983000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>195000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>384000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>450000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>773000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>385000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>367000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>181000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>114000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>194000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>297000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,58 +2048,64 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-312000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -1996,8 +2116,14 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2184,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,132 +2252,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>58000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-38000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-23000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>10000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F33" s="3">
         <v>329000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>280000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>223000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>166000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>320000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>318000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>983000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>195000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>384000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>450000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>461000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>381000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>159000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>181000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>114000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>194000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>297000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,137 +2456,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F35" s="3">
         <v>329000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>280000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>223000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>166000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>320000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>318000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>983000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>195000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>384000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>450000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>461000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>381000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>159000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>181000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>114000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>194000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>297000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44197</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44106</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44015</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43924</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43833</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43742</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43462</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43098</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42734</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2627,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,70 +2653,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1212000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1799000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1664000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1722000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1612000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1744000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1784000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2220000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1388000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1357000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1942000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1853000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2926000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2556000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2285000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2539000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3026000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1716000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2605,258 +2783,288 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="F43" s="3">
         <v>978000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>801000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>866000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1115000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1160000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1112000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1065000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>989000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>897000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1058000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1202000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1184000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1076000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1055000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1209000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1199000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1156000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1211000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1281000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1318000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1323000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1142000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1102000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1148000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1041000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>970000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1001000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1097000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1116000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1053000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1014000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1014000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>982000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1038000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1008000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F45" s="3">
         <v>221000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>163000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>141000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>135000</v>
       </c>
       <c r="H45" s="3">
         <v>141000</v>
       </c>
       <c r="I45" s="3">
-        <v>148000</v>
+        <v>135000</v>
       </c>
       <c r="J45" s="3">
         <v>141000</v>
       </c>
       <c r="K45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>141000</v>
+      </c>
+      <c r="M45" s="3">
         <v>184000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>201000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>164000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>263000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>220000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>243000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>285000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>316000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>321000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>240000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>205000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3668000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3779000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3692000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4081000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3994000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4114000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4015000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4152000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4031000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4363000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3487000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3676000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4523000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4310000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5247000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4910000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4824000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5041000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5460000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4140000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2885,22 +3093,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1318000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1300000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1259000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>24</v>
@@ -2917,132 +3125,150 @@
       <c r="V47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2317000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2323000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2270000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2232000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2158000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2102000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1869000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1822000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1823000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1789000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1792000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1720000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1762000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1817000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1875000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1911000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2012000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1261000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1272000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1277000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1282000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1295000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1307000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1320000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1334000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1348000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1366000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1386000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1406000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1425000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1460000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1492000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1519000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1560000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1601000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3329,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,70 +3397,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1471000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1352000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1323000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1305000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1316000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1289000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1307000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1302000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1271000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1305000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>603000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>604000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>601000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>608000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>603000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>618000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>823000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>833000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>808000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>808000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,70 +3533,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8613000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8604000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8986000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8862000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8930000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8829000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8932000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8738000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8885000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8596000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8789000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9578000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9410000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9012000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8750000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8956000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9268000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9739000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8561000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3631,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,70 +3657,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1861000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1730000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1795000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1808000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1830000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1870000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1750000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1420000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1310000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1442000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1776000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1728000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1645000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1620000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1539000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1626000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1591000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1631000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3470,26 +3736,26 @@
         <v>245000</v>
       </c>
       <c r="E58" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>245000</v>
+      </c>
+      <c r="G58" s="3">
         <v>25000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>25000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>19000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3497,282 +3763,312 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>499000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>499000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>503000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>560000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T58" s="3">
-        <v>158000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>951000</v>
+      </c>
+      <c r="F59" s="3">
         <v>887000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>866000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>824000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>895000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>848000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>824000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>799000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>812000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>836000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>858000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>963000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>907000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>933000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>919000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1000000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1040000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1050000</v>
       </c>
       <c r="V59" s="3">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="X59" s="3">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2889000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2921000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2993000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2621000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2644000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2722000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2690000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2549000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2232000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2146000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3175000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3190000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3055000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3113000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2458000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2626000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2789000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2681000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4891000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4894000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4897000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5120000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4138000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4156000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4091000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4135000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4140000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4253000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4522000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4324000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4322000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4320000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4319000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4316000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5002000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5021000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5073000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4093000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>229000</v>
+      </c>
+      <c r="F62" s="3">
         <v>230000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>255000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>259000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>265000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>256000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>267000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>279000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>238000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>239000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>231000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>235000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>235000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>274000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>260000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>254000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>257000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>269000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>264000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +4129,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3895,8 +4197,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,70 +4265,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8012000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8044000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8120000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7996000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7041000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7143000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7037000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7102000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6968000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6723000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6907000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6855000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7732000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7745000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7648000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7689000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7714000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7904000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8131000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7038000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4363,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4427,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4495,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4563,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,70 +4631,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6398000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6305000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4767,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4835,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,70 +4903,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>631000</v>
+      </c>
+      <c r="F76" s="3">
         <v>484000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>990000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1821000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1787000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1792000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1830000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1770000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2162000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1689000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1934000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1846000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1665000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1364000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1061000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1242000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1364000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1608000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1523000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,137 +5039,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44197</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44106</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44015</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43924</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43833</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43742</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43462</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43098</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42734</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F81" s="3">
         <v>329000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>280000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>223000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>166000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>320000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>318000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>983000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>195000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>384000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>450000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>461000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>381000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>159000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>181000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>114000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>194000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>297000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,70 +5210,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99000</v>
+        <v>104000</v>
       </c>
       <c r="E83" s="3">
-        <v>96000</v>
+        <v>103000</v>
       </c>
       <c r="F83" s="3">
         <v>99000</v>
       </c>
       <c r="G83" s="3">
+        <v>96000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="I83" s="3">
         <v>100000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>94000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>92000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>134000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>135000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>138000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>134000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>143000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>161000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>176000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>182000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>191000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5342,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5410,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5478,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5546,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5614,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>478000</v>
+      </c>
+      <c r="F89" s="3">
         <v>378000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>473000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>297000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>390000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>480000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>456000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>448000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>438000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>288000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>587000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>468000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>558000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>850000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>237000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>243000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>426000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>655000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,70 +5712,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-104000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-159000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-111000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-114000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-130000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-194000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-151000</v>
       </c>
       <c r="L91" s="3">
         <v>-147000</v>
       </c>
       <c r="M91" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-127000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-177000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-96000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-124000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-104000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-94000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-96000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5844,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,70 +5912,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-159000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-104000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-108000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-142000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-234000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-151000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1205000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-129000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-176000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-78000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-132000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-122000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-103000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-95000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,70 +6010,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-161000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-167000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-167000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-168000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-170000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-165000</v>
       </c>
       <c r="J96" s="3">
         <v>-170000</v>
       </c>
       <c r="K96" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-174000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-178000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-180000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-181000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-181000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-179000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-182000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-184000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-187000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-186000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-188000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +6142,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +6210,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,75 +6278,87 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-594000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-868000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-179000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-251000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-177000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-374000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-289000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-765000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-795000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-276000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-815000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-326000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-184000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-502000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-363000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-617000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>984000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-324000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5871,113 +6367,125 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-8000</v>
       </c>
       <c r="P101" s="3">
         <v>3000</v>
       </c>
       <c r="Q101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S101" s="3">
         <v>1000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>8000</v>
       </c>
       <c r="T101" s="3">
         <v>4000</v>
       </c>
       <c r="U101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W101" s="3">
         <v>-12000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-587000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>135000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-58000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>110000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-132000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-40000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-465000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>860000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>31000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-585000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>88000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>370000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>271000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-254000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-488000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1311000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>224000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,302 +665,315 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44197</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44106</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44015</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43924</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43833</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43742</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43462</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43098</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42734</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3115000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3013000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2731000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2623000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2314000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2517000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2718000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2696000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2578000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2371000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2313000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2715000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2991000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2835000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2803000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2914000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2632000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2406000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2674000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2894000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2168000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2159000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2128000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1991000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1927000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1718000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1850000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1972000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1938000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1907000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1747000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1712000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1921000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2078000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1931000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1956000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2037000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1896000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1740000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1858000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2003000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>948000</v>
+      </c>
+      <c r="E10" s="3">
         <v>956000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>885000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>740000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>696000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>596000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>667000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>746000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>758000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>671000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>624000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>601000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>794000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>913000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>904000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>847000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>877000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>736000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>666000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>816000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>891000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -985,76 +998,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E12" s="3">
         <v>233000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>232000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>227000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>221000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>223000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>222000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>246000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>250000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>255000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>241000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>238000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>246000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>266000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>259000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>254000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>250000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>263000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>288000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>324000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>305000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,8 +1138,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1130,67 +1150,70 @@
         <v>1000</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>63000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-63000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-6000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>33000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>51000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>48000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>33000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1216,22 +1239,22 @@
         <v>3000</v>
       </c>
       <c r="K15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L15" s="3">
         <v>4000</v>
       </c>
       <c r="M15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N15" s="3">
         <v>6000</v>
       </c>
       <c r="O15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P15" s="3">
         <v>5000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>6000</v>
       </c>
       <c r="Q15" s="3">
         <v>6000</v>
@@ -1240,16 +1263,16 @@
         <v>6000</v>
       </c>
       <c r="S15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T15" s="3">
         <v>19000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>28000</v>
       </c>
       <c r="W15" s="3">
         <v>28000</v>
@@ -1257,8 +1280,11 @@
       <c r="X15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1280,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2536000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2529000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2506000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2345000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2275000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2063000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2250000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2342000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2312000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2305000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2039000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2077000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2299000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2488000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2330000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2362000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2481000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2377000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2210000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2408000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2524000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E18" s="3">
         <v>586000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>507000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>386000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>348000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>251000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>267000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>376000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>384000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>273000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>332000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>236000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>416000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>503000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>505000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>441000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>433000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>255000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>196000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>266000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>370000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,149 +1475,156 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-58000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>34000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>38000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E21" s="3">
         <v>696000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>659000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>497000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>439000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>370000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>309000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>481000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>477000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>345000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>480000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>405000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>592000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>660000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>657000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>596000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>589000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>410000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>358000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>454000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>551000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>59000</v>
+        <v>62000</v>
       </c>
       <c r="E22" s="3">
         <v>59000</v>
@@ -1593,22 +1633,22 @@
         <v>59000</v>
       </c>
       <c r="G22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>49000</v>
       </c>
       <c r="J22" s="3">
         <v>49000</v>
       </c>
       <c r="K22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L22" s="3">
         <v>48000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>55000</v>
       </c>
       <c r="M22" s="3">
         <v>55000</v>
@@ -1617,173 +1657,182 @@
         <v>55000</v>
       </c>
       <c r="O22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="P22" s="3">
         <v>56000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>61000</v>
       </c>
       <c r="T22" s="3">
         <v>61000</v>
       </c>
       <c r="U22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="V22" s="3">
         <v>62000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>60000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>50000</v>
       </c>
       <c r="X22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E23" s="3">
         <v>533000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>497000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>339000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>291000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>221000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>338000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>336000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>198000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>291000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>398000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>468000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>466000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>393000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>371000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>188000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>120000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>212000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>310000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>18000</v>
       </c>
       <c r="K24" s="3">
         <v>18000</v>
       </c>
       <c r="L24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-692000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-307000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1850,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E26" s="3">
         <v>526000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>482000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>329000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>280000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>223000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>166000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>320000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>318000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>983000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>384000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>450000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>773000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>385000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>367000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>181000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>114000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>194000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>297000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E27" s="3">
         <v>526000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>482000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>329000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>280000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>223000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>166000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>320000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>318000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>983000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>195000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>384000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>450000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>773000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>385000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>367000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>181000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>194000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>297000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2054,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2080,17 +2141,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2098,17 +2159,17 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-312000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2122,8 +2183,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2190,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2258,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>58000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-34000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-38000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>526000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>482000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>329000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>280000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>223000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>166000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>320000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>318000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>983000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>195000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>384000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>450000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>461000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>381000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>159000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>181000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>114000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>194000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>297000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2462,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>526000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>482000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>329000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>280000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>223000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>166000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>320000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>318000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>983000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>195000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>384000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>450000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>461000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>381000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>159000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>181000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>114000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>194000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>297000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44197</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44106</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44015</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43924</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43833</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43742</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43462</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43098</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42734</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2629,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2655,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E41" s="3">
         <v>991000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1209000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1212000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1799000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1664000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1722000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1612000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1744000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1784000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2220000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1388000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1357000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1942000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1853000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2926000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2556000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2285000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2539000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3026000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1716000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2789,282 +2879,297 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1301000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1158000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>978000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>801000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>866000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1115000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1160000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1112000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1065000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>989000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>897000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1058000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1202000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1184000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1076000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1055000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1209000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1199000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1156000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1211000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1188000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1204000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1281000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1318000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1323000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1142000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1102000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1148000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1041000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>970000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1001000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1097000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1053000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1014000</v>
       </c>
       <c r="T44" s="3">
         <v>1014000</v>
       </c>
       <c r="U44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="V44" s="3">
         <v>982000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1038000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1008000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E45" s="3">
         <v>188000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>208000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>221000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>163000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>141000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>135000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>141000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>148000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>184000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>201000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>164000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>263000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>220000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>243000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>285000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>316000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>321000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>240000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>205000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4450000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3668000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3779000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3692000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4081000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3994000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4114000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4015000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4152000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4031000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4363000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3487000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3676000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4523000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4310000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5247000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4910000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4824000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5041000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5460000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4140000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3099,19 +3204,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>1318000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1300000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1259000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>24</v>
@@ -3131,144 +3236,153 @@
       <c r="X47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2216000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2213000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2278000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2317000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2323000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2270000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2232000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2158000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2102000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1869000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1822000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1823000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1789000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1792000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1720000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1762000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1817000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1875000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1911000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2012000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1261000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1266000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1272000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1277000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1282000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1295000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1307000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1320000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1334000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1348000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1366000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1386000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1425000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1442000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1460000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1492000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1519000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1560000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1601000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3335,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3403,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1471000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1352000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1323000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1305000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1316000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1289000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1307000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1302000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1271000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1305000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>603000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>604000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>601000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>608000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>603000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>618000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>823000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>833000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>808000</v>
       </c>
       <c r="W52" s="3">
         <v>808000</v>
       </c>
       <c r="X52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3539,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9375000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8613000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8675000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8604000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8986000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8862000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8930000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8829000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8932000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8738000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8885000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8596000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8789000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9578000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9410000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9012000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8750000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8956000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9268000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9739000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8561000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3633,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3659,81 +3789,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1812000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1766000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1725000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1861000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1730000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1795000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1808000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1830000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1870000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1750000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1420000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1310000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1442000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1776000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1728000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1645000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1620000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1539000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1626000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1591000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1631000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>245000</v>
+        <v>235000</v>
       </c>
       <c r="E58" s="3">
         <v>245000</v>
@@ -3742,23 +3876,23 @@
         <v>245000</v>
       </c>
       <c r="G58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="H58" s="3">
         <v>25000</v>
       </c>
       <c r="I58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J58" s="3">
         <v>19000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3769,306 +3903,321 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>499000</v>
       </c>
       <c r="R58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="S58" s="3">
         <v>503000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>560000</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W58" s="3">
         <v>158000</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E59" s="3">
         <v>878000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>951000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>887000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>866000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>824000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>895000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>848000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>824000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>799000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>812000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>836000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>858000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>963000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>907000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>933000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>919000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1040000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1050000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2992000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2889000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2921000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2993000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2621000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2644000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2722000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2690000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2549000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2232000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2146000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3175000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3190000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3055000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3113000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2458000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2626000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2789000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2681000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5626000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4891000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4894000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4897000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5120000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4138000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4091000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4135000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4140000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4253000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4522000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4324000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4322000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4320000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4319000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4316000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5002000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5021000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5073000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4093000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E62" s="3">
         <v>232000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>229000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>230000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>255000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>259000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>265000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>256000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>267000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>279000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>238000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>239000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>231000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>235000</v>
       </c>
       <c r="Q62" s="3">
         <v>235000</v>
       </c>
       <c r="R62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="S62" s="3">
         <v>274000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>260000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>254000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>257000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>269000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>264000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4135,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4203,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4271,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8012000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8044000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8120000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7996000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7041000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7143000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7037000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7102000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6968000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6723000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6907000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6855000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7732000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7745000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7648000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7689000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7714000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7904000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8131000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7038000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4365,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4433,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4501,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4569,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4637,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6533000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4773,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4841,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4909,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E76" s="3">
         <v>601000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>631000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>484000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>990000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1821000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1787000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1792000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1830000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1770000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2162000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1689000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1934000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1846000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1665000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1364000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1061000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1242000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1364000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1608000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1523000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5045,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44197</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44106</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44015</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43924</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43833</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43742</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43462</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43098</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42734</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>526000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>482000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>329000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>280000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>223000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>166000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>320000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>318000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>983000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>195000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>384000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>450000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>461000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>381000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>159000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>181000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>114000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>194000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>297000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5212,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E83" s="3">
         <v>104000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>96000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>94000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>92000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>134000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>135000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>138000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>134000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>143000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>157000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>161000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>176000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>182000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>191000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5348,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5416,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5484,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5552,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5620,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E89" s="3">
         <v>496000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>478000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>378000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>473000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>297000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>390000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>480000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>456000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>448000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>438000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>288000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>587000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>468000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>558000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>850000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>237000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>243000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>426000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>655000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5714,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-117000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-104000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-159000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-111000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-114000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-130000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-194000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-147000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-151000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-147000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-127000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-177000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-96000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-124000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-104000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-94000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-96000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5850,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5918,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-120000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-106000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-159000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-104000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-142000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-234000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-151000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1205000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-176000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-132000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-122000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-103000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-95000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6012,76 +6245,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-153000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-154000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-161000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-167000</v>
       </c>
       <c r="H96" s="3">
         <v>-167000</v>
       </c>
       <c r="I96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-168000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-170000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-165000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-170000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-178000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-181000</v>
       </c>
       <c r="Q96" s="3">
         <v>-181000</v>
       </c>
       <c r="R96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-179000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-182000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-184000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-187000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-186000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-188000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6148,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6216,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6284,84 +6527,90 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-594000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-375000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-868000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-179000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-251000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-177000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-374000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-289000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-765000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-795000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-276000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-815000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-326000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-184000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-162000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-502000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-363000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-617000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>984000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-324000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6373,119 +6622,125 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-12000</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-218000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-587000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>135000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>110000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-132000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-465000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>860000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-585000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>88000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>370000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>271000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-254000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-488000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1311000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>224000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,328 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44197</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44106</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43924</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43833</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43742</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43462</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43098</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42734</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2802000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3116000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3115000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3013000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2731000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2623000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2314000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2517000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2718000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2696000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2578000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2371000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2313000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2715000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2991000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2835000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2803000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2914000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2632000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2406000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2674000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2894000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2168000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2159000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2128000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1991000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1927000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1718000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1850000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1972000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1938000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1907000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1747000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1712000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1921000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2078000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1931000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1956000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2037000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1896000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1740000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1858000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2003000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E10" s="3">
         <v>948000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>956000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>885000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>740000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>696000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>596000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>667000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>746000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>758000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>671000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>624000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>601000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>794000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>913000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>904000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>847000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>877000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>736000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>666000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>816000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>891000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,79 +1012,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E12" s="3">
         <v>228000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>233000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>232000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>227000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>221000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>223000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>222000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>246000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>250000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>255000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>241000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>238000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>246000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>266000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>259000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>254000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>250000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>263000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>288000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>324000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>305000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,79 +1158,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
       </c>
       <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>63000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-63000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-6000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>33000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>51000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>48000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>33000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,22 +1265,22 @@
         <v>3000</v>
       </c>
       <c r="L15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M15" s="3">
         <v>4000</v>
       </c>
       <c r="N15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O15" s="3">
         <v>6000</v>
       </c>
       <c r="P15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6000</v>
       </c>
       <c r="R15" s="3">
         <v>6000</v>
@@ -1266,16 +1289,16 @@
         <v>6000</v>
       </c>
       <c r="T15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U15" s="3">
         <v>19000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>28000</v>
       </c>
       <c r="X15" s="3">
         <v>28000</v>
@@ -1283,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2373000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2536000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2529000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2506000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2345000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2275000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2063000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2250000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2342000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2312000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2305000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2039000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2077000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2299000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2488000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2330000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2362000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2481000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2377000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2210000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2408000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2524000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E18" s="3">
         <v>580000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>586000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>507000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>386000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>348000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>251000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>267000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>376000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>384000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>273000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>332000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>236000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>416000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>503000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>505000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>441000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>433000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>255000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>196000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>266000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>370000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,158 +1509,165 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-58000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E21" s="3">
         <v>684000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>696000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>659000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>497000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>439000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>370000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>309000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>481000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>477000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>345000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>480000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>405000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>592000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>660000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>657000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>596000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>589000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>410000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>358000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>454000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>551000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>59000</v>
       </c>
       <c r="F22" s="3">
         <v>59000</v>
@@ -1636,22 +1676,22 @@
         <v>59000</v>
       </c>
       <c r="H22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>49000</v>
       </c>
       <c r="K22" s="3">
         <v>49000</v>
       </c>
       <c r="L22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M22" s="3">
         <v>48000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>55000</v>
       </c>
       <c r="N22" s="3">
         <v>55000</v>
@@ -1660,179 +1700,188 @@
         <v>55000</v>
       </c>
       <c r="P22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>56000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>61000</v>
       </c>
       <c r="U22" s="3">
         <v>61000</v>
       </c>
       <c r="V22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="W22" s="3">
         <v>62000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>60000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>50000</v>
       </c>
       <c r="Y22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E23" s="3">
         <v>514000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>533000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>497000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>339000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>291000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>221000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>160000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>336000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>198000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>291000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>398000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>468000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>466000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>393000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>371000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>188000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>120000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>212000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>310000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>18000</v>
       </c>
       <c r="L24" s="3">
         <v>18000</v>
       </c>
       <c r="M24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-692000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-307000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1902,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E26" s="3">
         <v>501000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>526000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>482000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>329000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>280000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>223000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>166000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>320000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>318000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>983000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>384000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>450000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>773000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>385000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>367000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>181000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>194000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>297000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E27" s="3">
         <v>501000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>526000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>482000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>329000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>280000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>223000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>166000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>320000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>318000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>983000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>195000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>384000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>450000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>773000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>385000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>367000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>181000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>194000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>297000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2115,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2144,17 +2205,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2162,17 +2223,17 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-312000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2186,8 +2247,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>58000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E33" s="3">
         <v>501000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>526000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>482000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>329000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>280000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>223000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>166000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>320000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>318000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>983000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>195000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>384000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>450000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>461000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>381000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>159000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>181000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>194000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>297000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E35" s="3">
         <v>501000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>526000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>482000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>329000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>280000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>223000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>166000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>320000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>318000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>983000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>195000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>384000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>450000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>461000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>381000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>159000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>181000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>194000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>297000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44197</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44106</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44015</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43924</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43833</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43742</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43462</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43098</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42734</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1138000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1535000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>991000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1209000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1212000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1799000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1664000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1722000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1612000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1744000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1784000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2220000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1388000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1357000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1942000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1853000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2926000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2556000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2285000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2539000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3026000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1716000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2882,294 +2972,309 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1399000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1301000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1158000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>978000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>801000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>866000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1115000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1160000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1112000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1065000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>989000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>897000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1202000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1184000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1076000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1055000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1209000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1199000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1156000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1211000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1287000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1188000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1204000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1281000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1318000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1323000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1142000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1102000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1148000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1041000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>970000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1001000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1116000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1053000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1014000</v>
       </c>
       <c r="U44" s="3">
         <v>1014000</v>
       </c>
       <c r="V44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="W44" s="3">
         <v>982000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1038000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1008000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E45" s="3">
         <v>229000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>188000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>208000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>221000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>163000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>141000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>135000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>141000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>148000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>141000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>201000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>164000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>263000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>220000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>243000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>285000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>316000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>321000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>240000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>205000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4259000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4450000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3668000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3779000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3692000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4081000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3994000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4114000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4015000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4152000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4031000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4363000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3487000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3676000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4523000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4310000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5247000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4910000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4824000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5041000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5460000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4140000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3207,19 +3312,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1318000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1259000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>24</v>
@@ -3239,150 +3344,159 @@
       <c r="Y47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2216000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2213000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2278000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2317000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2323000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2270000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2232000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2158000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2102000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1869000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1822000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1823000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1789000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1792000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1720000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1762000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1817000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1875000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1911000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2012000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1256000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1261000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1266000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1272000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1277000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1282000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1295000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1307000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1320000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1334000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1348000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1366000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1386000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1406000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1425000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1442000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1460000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1492000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1519000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1560000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1601000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3640,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1453000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1471000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1352000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1323000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1305000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1316000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1289000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1307000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1302000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1271000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1305000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>603000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>604000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>601000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>608000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>603000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>618000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>823000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>833000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>808000</v>
       </c>
       <c r="X52" s="3">
         <v>808000</v>
       </c>
       <c r="Y52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9145000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9375000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8613000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8675000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8604000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8986000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8862000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8930000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8829000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8932000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8738000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8885000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8596000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8789000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9578000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9410000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9012000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8750000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8956000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9268000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9739000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8561000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,87 +3920,91 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1948000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1812000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1766000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1725000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1861000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1730000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1795000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1808000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1830000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1870000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1750000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1420000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1310000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1776000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1728000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1645000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1620000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1539000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1626000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1591000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E58" s="3">
         <v>235000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>245000</v>
       </c>
       <c r="F58" s="3">
         <v>245000</v>
@@ -3879,23 +4013,23 @@
         <v>245000</v>
       </c>
       <c r="H58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="I58" s="3">
         <v>25000</v>
       </c>
       <c r="J58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K58" s="3">
         <v>19000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3906,318 +4040,333 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>499000</v>
       </c>
       <c r="S58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="T58" s="3">
         <v>503000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>560000</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X58" s="3">
         <v>158000</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E59" s="3">
         <v>945000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>878000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>951000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>887000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>866000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>824000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>895000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>848000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>824000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>799000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>812000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>836000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>858000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>963000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>907000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>933000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>919000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1040000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1050000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2881000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2992000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2889000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2921000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2993000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2621000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2644000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2722000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2690000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2549000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2232000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2146000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3175000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3190000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3055000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3113000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2458000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2626000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2789000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2681000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5614000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5626000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4891000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4894000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4897000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5120000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4138000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4091000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4135000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4140000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4253000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4522000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4324000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4322000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4320000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4319000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4316000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5002000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5021000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5073000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4093000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E62" s="3">
         <v>231000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>229000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>230000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>255000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>259000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>265000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>256000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>267000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>279000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>238000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>239000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>231000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>235000</v>
       </c>
       <c r="R62" s="3">
         <v>235000</v>
       </c>
       <c r="S62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="T62" s="3">
         <v>274000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>260000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>254000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>257000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>269000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>264000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4358,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8724000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8849000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8012000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8044000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8120000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7996000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7041000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7143000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7037000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7102000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6968000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6723000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6907000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6855000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7732000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7745000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7648000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7689000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7714000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7904000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8131000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7038000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6767000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6533000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E76" s="3">
         <v>526000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>601000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>631000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>484000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>990000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1821000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1787000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1792000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1830000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1770000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2162000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1689000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1934000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1846000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1665000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1364000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1061000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1242000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1364000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1608000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1523000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44197</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44106</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44015</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43924</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43833</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43742</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43462</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43098</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42734</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E81" s="3">
         <v>501000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>526000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>482000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>329000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>280000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>223000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>166000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>320000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>318000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>983000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>195000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>384000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>450000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>461000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>381000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>159000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>181000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>194000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>297000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E83" s="3">
         <v>108000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>104000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>96000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>92000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>134000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>135000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>138000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>134000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>143000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>157000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>161000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>176000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>182000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>191000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E89" s="3">
         <v>521000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>496000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>478000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>378000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>473000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>297000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>388000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>390000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>480000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>456000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>448000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>438000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>288000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>587000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>468000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>558000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>850000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>237000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>243000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>426000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>655000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-117000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-124000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-104000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-159000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-111000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-114000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-130000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-194000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-147000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-151000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-147000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-177000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-96000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-124000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-104000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-94000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-96000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-120000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-106000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-159000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-104000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-142000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-234000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-151000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1205000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-176000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-78000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-132000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-122000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-103000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-95000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,79 +6479,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-151000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-153000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-154000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-161000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-167000</v>
       </c>
       <c r="I96" s="3">
         <v>-167000</v>
       </c>
       <c r="J96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-168000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-170000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-165000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-170000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-178000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-181000</v>
       </c>
       <c r="R96" s="3">
         <v>-181000</v>
       </c>
       <c r="S96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-179000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-182000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-184000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-187000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-186000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-188000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,79 +6773,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-760000</v>
+      </c>
+      <c r="E100" s="3">
         <v>99000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-594000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-375000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-868000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-179000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-251000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-177000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-374000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-289000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-765000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-795000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-276000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-815000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-326000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-184000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-162000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-502000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-363000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-617000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>984000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6612,8 +6861,8 @@
       <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6625,122 +6874,128 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E102" s="3">
         <v>544000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-218000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-587000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>135000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-58000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-132000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-465000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>860000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-585000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>88000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>370000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>271000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-254000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-488000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1311000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>224000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>STX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,340 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44197</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44106</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43924</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43833</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43742</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43462</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43098</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42734</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2802000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3116000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3115000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3013000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2731000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2623000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2314000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2517000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2718000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2696000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2578000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2371000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2313000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2715000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2991000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2835000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2803000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2914000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2632000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2406000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2674000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2894000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1996000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2168000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2159000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2128000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1991000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1927000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1718000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1850000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1972000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1938000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1907000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1747000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1712000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1921000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2078000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1931000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1956000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2037000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1896000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1740000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1858000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2003000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E10" s="3">
         <v>806000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>948000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>956000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>885000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>740000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>696000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>596000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>667000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>746000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>758000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>671000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>624000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>601000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>794000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>913000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>904000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>847000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>877000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>736000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>666000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>816000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>891000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,82 +1025,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E12" s="3">
         <v>233000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>228000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>233000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>232000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>227000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>221000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>223000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>222000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>246000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>250000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>255000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>241000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>238000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>246000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>266000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>259000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>254000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>250000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>263000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>288000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>324000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>305000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,87 +1177,93 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>1000</v>
       </c>
       <c r="G14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>63000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-63000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-6000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>33000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>51000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>48000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>33000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
         <v>3000</v>
@@ -1268,22 +1290,22 @@
         <v>3000</v>
       </c>
       <c r="M15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N15" s="3">
         <v>4000</v>
       </c>
       <c r="O15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P15" s="3">
         <v>6000</v>
       </c>
       <c r="Q15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R15" s="3">
         <v>5000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>6000</v>
       </c>
       <c r="S15" s="3">
         <v>6000</v>
@@ -1292,16 +1314,16 @@
         <v>6000</v>
       </c>
       <c r="U15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V15" s="3">
         <v>19000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>19000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>28000</v>
       </c>
       <c r="Y15" s="3">
         <v>28000</v>
@@ -1309,8 +1331,11 @@
       <c r="Z15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2268000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2373000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2536000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2529000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2506000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2345000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2275000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2063000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2250000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2342000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2312000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2305000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2039000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2077000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2299000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2488000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2330000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2362000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2481000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2377000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2210000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2408000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2524000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>360000</v>
+      </c>
+      <c r="E18" s="3">
         <v>429000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>580000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>586000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>507000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>386000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>348000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>251000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>376000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>384000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>273000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>332000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>236000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>416000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>503000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>505000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>441000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>433000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>255000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>196000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>266000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>370000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1510,167 +1542,174 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-58000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>38000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E21" s="3">
         <v>526000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>684000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>696000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>659000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>497000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>439000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>370000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>309000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>481000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>477000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>345000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>480000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>405000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>592000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>660000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>657000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>596000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>589000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>410000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>358000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>454000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>551000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E22" s="3">
         <v>63000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>59000</v>
       </c>
       <c r="G22" s="3">
         <v>59000</v>
@@ -1679,22 +1718,22 @@
         <v>59000</v>
       </c>
       <c r="I22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>49000</v>
       </c>
       <c r="L22" s="3">
         <v>49000</v>
       </c>
       <c r="M22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N22" s="3">
         <v>48000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>55000</v>
       </c>
       <c r="O22" s="3">
         <v>55000</v>
@@ -1703,111 +1742,117 @@
         <v>55000</v>
       </c>
       <c r="Q22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="R22" s="3">
         <v>56000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>61000</v>
       </c>
       <c r="V22" s="3">
         <v>61000</v>
       </c>
       <c r="W22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="X22" s="3">
         <v>62000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>60000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>50000</v>
       </c>
       <c r="Z22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E23" s="3">
         <v>351000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>514000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>533000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>497000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>339000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>291000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>221000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>338000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>336000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>198000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>291000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>398000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>468000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>466000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>393000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>371000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>188000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>120000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>212000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>310000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1815,73 +1860,76 @@
         <v>5000</v>
       </c>
       <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
         <v>13000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>18000</v>
       </c>
       <c r="M24" s="3">
         <v>18000</v>
       </c>
       <c r="N24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-692000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-307000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1954,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E26" s="3">
         <v>346000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>501000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>526000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>482000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>329000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>280000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>223000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>320000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>318000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>983000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>384000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>450000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>773000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>385000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>367000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>181000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>194000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>297000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E27" s="3">
         <v>346000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>501000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>526000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>482000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>329000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>280000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>223000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>166000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>320000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>318000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>983000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>195000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>384000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>450000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>773000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>385000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>367000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>181000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>194000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>297000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2176,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2208,17 +2268,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2226,17 +2286,17 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-312000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-4000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2250,8 +2310,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>58000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-38000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>10000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E33" s="3">
         <v>346000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>501000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>526000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>482000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>329000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>280000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>223000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>320000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>318000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>983000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>195000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>384000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>450000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>461000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>381000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>159000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>181000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>194000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>297000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E35" s="3">
         <v>346000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>501000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>526000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>482000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>329000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>280000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>223000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>320000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>318000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>983000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>195000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>384000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>450000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>461000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>381000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>159000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>181000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>194000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>297000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44197</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44106</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44015</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43924</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43833</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43742</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43462</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43098</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42734</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2914,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1138000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1535000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>991000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1209000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1212000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1799000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1664000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1722000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1612000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1744000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1784000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2220000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1388000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1357000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1942000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1853000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2926000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2556000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2285000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2539000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3026000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1716000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2975,306 +3064,321 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1344000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1399000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1301000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1158000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>978000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>801000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>866000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1115000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1160000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1112000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1065000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>989000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>897000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1058000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1202000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1184000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1076000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1055000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1209000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1199000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1156000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1211000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1479000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1287000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1188000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1204000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1281000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1318000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1323000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1142000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1102000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1148000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1041000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>970000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1097000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1116000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1053000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1014000</v>
       </c>
       <c r="V44" s="3">
         <v>1014000</v>
       </c>
       <c r="W44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="X44" s="3">
         <v>982000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1038000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1008000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E45" s="3">
         <v>298000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>229000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>188000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>208000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>221000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>163000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>141000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>135000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>141000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>148000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>184000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>201000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>164000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>263000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>220000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>243000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>285000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>316000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>321000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>240000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>205000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4033000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4259000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4450000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3668000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3779000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3692000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4081000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3994000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4114000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4015000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4152000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4031000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4363000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3487000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3676000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4523000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4310000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5247000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4910000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4824000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5041000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5460000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4140000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3315,19 +3419,19 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1318000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1259000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>24</v>
@@ -3347,156 +3451,165 @@
       <c r="Z47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2333000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2197000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2216000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2213000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2278000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2317000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2323000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2270000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2232000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2158000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2102000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1869000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1822000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1823000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1789000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1792000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1720000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1762000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1817000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1875000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1911000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2012000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1251000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1256000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1261000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1266000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1272000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1277000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1282000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1295000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1307000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1320000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1334000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1348000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1366000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1386000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1406000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1425000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1442000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1460000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1492000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1519000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1560000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1601000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,82 +3759,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1438000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1453000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1471000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1352000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1323000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1305000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1316000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1289000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1307000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1302000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1271000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1305000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>603000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>604000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>601000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>608000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>603000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>618000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>823000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>833000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>808000</v>
       </c>
       <c r="Y52" s="3">
         <v>808000</v>
       </c>
       <c r="Z52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8944000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9145000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9375000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8613000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8675000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8604000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8986000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8862000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8930000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8829000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8932000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8738000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8885000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8596000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8789000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9578000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9410000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9012000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8750000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8956000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9268000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9739000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8561000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,93 +4050,97 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1948000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1812000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1766000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1725000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1861000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1730000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1795000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1808000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1830000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1870000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1750000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1420000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1310000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1442000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1776000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1728000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1645000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1620000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1539000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1626000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E58" s="3">
         <v>30000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>235000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>245000</v>
       </c>
       <c r="G58" s="3">
         <v>245000</v>
@@ -4016,23 +4149,23 @@
         <v>245000</v>
       </c>
       <c r="I58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="J58" s="3">
         <v>25000</v>
       </c>
       <c r="K58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="L58" s="3">
         <v>19000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4043,330 +4176,345 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>499000</v>
       </c>
       <c r="T58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="U58" s="3">
         <v>503000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>560000</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y58" s="3">
         <v>158000</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>913000</v>
+      </c>
+      <c r="E59" s="3">
         <v>903000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>945000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>878000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>951000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>887000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>866000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>824000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>895000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>848000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>824000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>799000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>812000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>836000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>858000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>963000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>907000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>933000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>919000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1050000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3555000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2881000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2992000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2889000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2921000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2993000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2621000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2644000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2722000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2690000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2549000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2232000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2146000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3175000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3190000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3055000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3113000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2458000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2626000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2789000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2681000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5062000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5614000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5626000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4891000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4894000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4897000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5120000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4138000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4156000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4091000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4135000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4140000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4253000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4522000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4324000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4322000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4320000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4319000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4316000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5002000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5021000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5073000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4093000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E62" s="3">
         <v>229000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>231000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>229000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>230000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>255000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>259000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>265000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>256000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>267000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>279000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>238000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>239000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>231000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>235000</v>
       </c>
       <c r="S62" s="3">
         <v>235000</v>
       </c>
       <c r="T62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="U62" s="3">
         <v>274000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>260000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>254000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>257000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>269000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>264000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4513,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8835000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8724000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8849000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8012000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8044000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8120000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7996000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7041000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7143000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7037000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7102000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6968000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6723000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6907000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6855000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7732000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7745000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7648000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7689000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7714000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7904000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8131000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7038000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7117000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6767000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6533000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E76" s="3">
         <v>421000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>526000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>601000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>631000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>484000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>990000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1821000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1787000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1792000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1830000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1770000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2162000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1689000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1934000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1846000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1665000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1364000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1061000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1242000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1364000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1608000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1523000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44197</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44106</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44015</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43924</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43833</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43742</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43462</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43098</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42734</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E81" s="3">
         <v>346000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>501000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>526000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>482000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>329000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>280000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>223000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>320000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>318000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>983000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>195000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>384000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>450000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>461000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>381000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>159000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>181000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>194000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>297000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E83" s="3">
         <v>112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>108000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>104000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>96000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>92000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>134000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>135000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>138000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>134000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>143000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>157000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>161000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>176000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>182000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>191000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E89" s="3">
         <v>460000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>521000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>496000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>478000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>378000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>473000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>297000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>390000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>480000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>456000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>448000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>438000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>288000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>587000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>468000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>558000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>850000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>237000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>243000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>426000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>655000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-97000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-95000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-117000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-124000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-104000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-159000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-111000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-130000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-194000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-147000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-151000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-147000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-177000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-96000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-124000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-104000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-96000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-120000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-106000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-159000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-142000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-234000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-151000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1205000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-176000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-78000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-132000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-122000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-103000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-95000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,82 +6712,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-154000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-151000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-153000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-154000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-161000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-167000</v>
       </c>
       <c r="J96" s="3">
         <v>-167000</v>
       </c>
       <c r="K96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-168000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-170000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-165000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-170000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-181000</v>
       </c>
       <c r="S96" s="3">
         <v>-181000</v>
       </c>
       <c r="T96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-179000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-182000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-184000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-187000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-186000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-188000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,93 +7018,99 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-644000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-760000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>99000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-594000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-375000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-868000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-179000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-251000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-177000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-374000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-289000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-765000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-795000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-276000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-815000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-326000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-184000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-162000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-502000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-363000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-617000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>984000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-324000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>24</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6877,125 +7125,131 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-523000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-397000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>544000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-218000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-587000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>135000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-58000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-132000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-465000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>860000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-585000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>88000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>370000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>271000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-254000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-488000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1311000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>224000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,365 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44197</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44106</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44015</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43924</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43833</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43742</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43462</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43098</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42734</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1887000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2628000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2802000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3116000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3115000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3013000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2731000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2623000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2314000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2517000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2718000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2696000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2578000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2313000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2715000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2991000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2835000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2803000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2914000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2632000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2406000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2674000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2894000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1869000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1996000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2168000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2159000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2128000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1991000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1927000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1718000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1850000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1972000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1938000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1907000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1712000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1921000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2078000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1931000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1956000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2037000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1896000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1740000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1858000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2003000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>482000</v>
+      </c>
+      <c r="F10" s="3">
         <v>759000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>806000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>948000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>956000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>885000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>740000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>696000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>596000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>667000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>746000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>758000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>671000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>624000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>601000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>794000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>913000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>904000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>847000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>877000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>736000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>666000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>816000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>891000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,85 +1051,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>234000</v>
+      </c>
+      <c r="F12" s="3">
         <v>247000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>233000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>228000</v>
       </c>
       <c r="G12" s="3">
         <v>233000</v>
       </c>
       <c r="H12" s="3">
+        <v>228000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>233000</v>
+      </c>
+      <c r="J12" s="3">
         <v>232000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>227000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>221000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>223000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>222000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>246000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>250000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>255000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>241000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>238000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>246000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>266000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>259000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>254000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>250000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>263000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>288000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>324000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>305000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1180,96 +1213,108 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>-123000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
         <v>1000</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>63000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>23000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-6000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>33000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>51000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>14000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>48000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>33000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>3000</v>
       </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
@@ -1293,49 +1338,55 @@
         <v>3000</v>
       </c>
       <c r="N15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>4000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>6000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>5000</v>
       </c>
       <c r="S15" s="3">
         <v>6000</v>
       </c>
       <c r="T15" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="U15" s="3">
         <v>6000</v>
       </c>
       <c r="V15" s="3">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="W15" s="3">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="X15" s="3">
         <v>19000</v>
       </c>
       <c r="Y15" s="3">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="Z15" s="3">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="AA15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1411,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1928000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2268000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2373000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2536000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2529000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2506000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2345000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2275000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2063000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2250000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2342000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2312000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2305000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2039000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2077000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2299000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2488000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2330000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2362000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2481000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2377000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2210000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2408000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2524000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F18" s="3">
         <v>360000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>429000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>580000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>586000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>507000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>386000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>348000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>251000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>267000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>376000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>384000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>273000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>332000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>236000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>416000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>503000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>505000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>441000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>433000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>255000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>196000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>266000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>370000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1543,393 +1608,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-58000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>38000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>23000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>233000</v>
+      </c>
+      <c r="F21" s="3">
         <v>473000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>526000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>684000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>696000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>659000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>497000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>439000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>370000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>309000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>481000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>477000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>345000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>480000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>405000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>592000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>660000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>657000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>596000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>589000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>410000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>358000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>454000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>551000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F22" s="3">
         <v>65000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>63000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>62000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>59000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>59000</v>
       </c>
       <c r="I22" s="3">
         <v>59000</v>
       </c>
       <c r="J22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>49000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>49000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>55000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>55000</v>
       </c>
       <c r="Q22" s="3">
         <v>55000</v>
       </c>
       <c r="R22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="S22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="T22" s="3">
         <v>56000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>58000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>54000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>60000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>61000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>61000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>62000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>60000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>50000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F23" s="3">
         <v>281000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>351000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>514000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>533000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>497000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>339000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>291000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>221000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>160000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>338000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>336000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>198000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>291000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>215000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>398000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>468000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>466000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>393000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>371000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>188000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>120000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>212000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>310000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>13000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-692000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>20000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>18000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-307000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>8000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>7000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>6000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>18000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2005,162 +2102,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F26" s="3">
         <v>276000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>346000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>501000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>526000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>482000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>329000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>280000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>223000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>166000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>320000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>318000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>983000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>195000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>384000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>450000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>773000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>385000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>367000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>181000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>114000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>194000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>297000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F27" s="3">
         <v>276000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>346000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>501000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>482000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>329000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>280000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>223000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>166000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>320000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>318000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>983000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>195000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>384000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>450000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>773000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>385000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>367000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>181000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>114000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>194000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>297000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2236,8 +2351,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2271,38 +2392,38 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-312000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-4000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2313,8 +2434,14 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,8 +2517,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2467,162 +2600,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F32" s="3">
         <v>14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>58000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-38000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-23000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>10000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F33" s="3">
         <v>276000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>501000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>482000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>329000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>280000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>223000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>166000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>320000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>318000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>983000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>195000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>384000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>450000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>461000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>381000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>159000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>181000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>114000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>194000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>297000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,167 +2849,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F35" s="3">
         <v>276000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>501000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>482000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>329000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>280000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>223000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>166000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>320000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>318000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>983000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>195000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>384000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>450000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>461000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>381000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>159000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>181000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>114000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>194000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>297000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44197</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44106</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44015</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43924</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43833</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43742</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43462</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43098</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42734</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,8 +3055,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2915,85 +3086,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>761000</v>
+      </c>
+      <c r="F41" s="3">
         <v>615000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1138000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1535000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>991000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1209000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1212000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1799000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1664000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1722000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1612000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1744000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1784000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2220000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1388000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1357000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1942000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1853000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2926000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2556000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2285000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2539000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>3026000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1716000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3067,318 +3246,348 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>840000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1532000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1344000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1399000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1301000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1158000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>978000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>801000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>866000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1115000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1160000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1112000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1065000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>989000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>897000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1058000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1202000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1184000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1076000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1055000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1209000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1199000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1156000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1211000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1565000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1479000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1287000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1188000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1204000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1281000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1318000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1323000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1142000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1102000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1148000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1041000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>970000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1001000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1097000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1116000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1053000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1002000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1014000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1014000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>982000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1038000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1008000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>275000</v>
+      </c>
+      <c r="F45" s="3">
         <v>321000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>298000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>229000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>188000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>208000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>221000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>163000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>141000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>135000</v>
       </c>
       <c r="M45" s="3">
         <v>141000</v>
       </c>
       <c r="N45" s="3">
-        <v>148000</v>
+        <v>135000</v>
       </c>
       <c r="O45" s="3">
         <v>141000</v>
       </c>
       <c r="P45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>141000</v>
+      </c>
+      <c r="R45" s="3">
         <v>184000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>201000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>164000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>263000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>220000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>243000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>285000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>316000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>321000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>240000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>205000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3081000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3740000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4033000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4259000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4450000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3668000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3779000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3692000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4081000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3994000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4114000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4015000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4152000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4031000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4363000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3487000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3676000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4523000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4310000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5247000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4910000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4824000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5041000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5460000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4140000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3422,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>1318000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1300000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1259000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>24</v>
@@ -3454,162 +3663,180 @@
       <c r="AA47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2196000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2333000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2197000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2216000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2213000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2278000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2317000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2323000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2270000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2232000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2200000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2158000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2102000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1869000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1822000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1823000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1789000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1792000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1720000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1762000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1817000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1875000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1911000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2012000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1246000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1251000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1256000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1261000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1266000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1272000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1277000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1282000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1295000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1307000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1320000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1334000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1366000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1386000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1406000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1425000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1442000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1460000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1492000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1519000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1560000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1601000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3685,8 +3912,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3762,85 +3995,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1332000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1438000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1453000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1471000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1352000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1323000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1305000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1316000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1289000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1307000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1302000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1271000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1305000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>603000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>604000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>601000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>608000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>603000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>618000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>823000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>833000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>808000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>808000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3916,85 +4161,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7867000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8611000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8944000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9145000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9375000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8613000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8675000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8604000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8986000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8862000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8930000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8829000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8932000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8738000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8885000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8596000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8789000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9578000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9410000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9012000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8750000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8956000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9268000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9739000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>8561000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4022,8 +4279,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4051,127 +4310,135 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2058000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1948000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1812000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1766000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1725000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1861000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1730000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1795000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1808000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1830000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1870000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1750000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1420000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1310000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1442000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1776000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1728000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1645000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1620000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1539000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1626000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1591000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>636000</v>
+      </c>
+      <c r="F58" s="3">
         <v>584000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>30000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>235000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>245000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>245000</v>
       </c>
       <c r="I58" s="3">
         <v>245000</v>
       </c>
       <c r="J58" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>245000</v>
+      </c>
+      <c r="L58" s="3">
         <v>25000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>25000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4179,342 +4446,372 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>499000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>499000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>503000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>560000</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>158000</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AA58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F59" s="3">
         <v>913000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>903000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>945000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>878000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>951000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>887000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>866000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>824000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>895000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>848000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>824000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>799000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>812000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>836000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>858000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>963000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>907000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>933000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>919000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1000000</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1040000</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1050000</v>
       </c>
       <c r="AA59" s="3">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2725000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3138000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3555000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2881000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2992000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2889000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2921000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2993000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2621000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2644000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2722000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2690000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2549000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2232000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2146000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3175000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3190000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3055000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3113000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2458000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2626000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2789000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2681000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5393000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5613000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5062000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5614000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5626000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4891000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4894000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4897000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5120000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4138000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4156000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4091000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4135000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4140000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4253000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4522000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4324000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4322000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4320000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4319000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>4316000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5002000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5021000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5073000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4093000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>211000</v>
+      </c>
+      <c r="F62" s="3">
         <v>218000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>229000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>231000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>232000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>229000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>230000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>255000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>259000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>265000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>256000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>267000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>279000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>238000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>239000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>231000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>235000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>235000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>274000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>260000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>254000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>257000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>269000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>264000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,8 +4887,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4667,8 +4970,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,85 +5053,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8337000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8962000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8835000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8724000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8849000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8012000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8044000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8120000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7996000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7041000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7143000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7037000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7102000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6968000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6723000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6907000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6855000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7732000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7745000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7648000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7689000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7714000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7904000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8131000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7038000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4850,8 +5171,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4927,8 +5250,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +5333,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,8 +5416,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5158,85 +5499,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7850000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7672000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7117000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6767000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6533000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5312,8 +5665,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5389,8 +5748,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5466,85 +5831,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-470000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="F76" s="3">
         <v>109000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>421000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>526000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>601000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>631000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>484000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>990000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1821000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1787000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1792000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1830000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1770000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2162000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1689000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1934000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1846000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1665000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1364000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1061000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1242000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1364000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1608000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1523000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5620,167 +5997,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44925</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44197</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44106</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44015</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43924</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43833</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43742</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43462</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43098</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42734</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F81" s="3">
         <v>276000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>501000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>482000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>329000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>280000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>223000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>166000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>320000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>318000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>983000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>195000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>384000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>450000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>461000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>381000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>159000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>181000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>114000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>194000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>297000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5808,85 +6203,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F83" s="3">
         <v>127000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>112000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>108000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>104000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>103000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>99000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>96000</v>
       </c>
       <c r="K83" s="3">
         <v>99000</v>
       </c>
       <c r="L83" s="3">
+        <v>96000</v>
+      </c>
+      <c r="M83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="N83" s="3">
         <v>100000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>94000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>92000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>134000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>135000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>138000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>134000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>143000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>157000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>161000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>176000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>182000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>191000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5962,8 +6365,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6039,8 +6448,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6116,8 +6531,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6193,8 +6614,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6270,85 +6697,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>245000</v>
+      </c>
+      <c r="F89" s="3">
         <v>180000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>460000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>521000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>496000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>478000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>378000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>473000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>297000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>390000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>480000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>456000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>448000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>438000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>288000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>587000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>468000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>558000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>850000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>237000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>243000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>426000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>655000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6376,85 +6815,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-72000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-97000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-95000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-117000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-124000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-104000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-159000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-111000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-114000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-130000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-194000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-147000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-151000</v>
       </c>
       <c r="Q91" s="3">
         <v>-147000</v>
       </c>
       <c r="R91" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-127000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-177000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-96000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-69000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-77000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-124000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-104000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-94000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-96000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6530,8 +6977,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6607,85 +7060,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-59000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-76000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-120000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-106000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-97000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-159000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-104000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-108000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-142000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-234000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-151000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-129000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-54000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-176000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-78000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-132000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-122000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-103000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-95000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6713,85 +7178,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-152000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-154000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-151000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-153000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-154000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-161000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-167000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-167000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-168000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-170000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-165000</v>
       </c>
       <c r="O96" s="3">
         <v>-170000</v>
       </c>
       <c r="P96" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-174000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-178000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-180000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-181000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-181000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-179000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-182000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-184000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-187000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-186000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-188000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6867,8 +7340,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7423,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7021,85 +7506,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-644000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-760000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>99000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-594000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-375000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-868000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-179000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-251000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-177000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-374000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-289000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-765000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-795000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-276000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-815000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-326000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-184000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-162000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-502000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-363000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-617000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>984000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-324000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7128,128 +7625,140 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-8000</v>
       </c>
       <c r="U101" s="3">
         <v>3000</v>
       </c>
       <c r="V101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X101" s="3">
         <v>1000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>4000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>8000</v>
       </c>
       <c r="Y101" s="3">
         <v>4000</v>
       </c>
       <c r="Z101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>146000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-523000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-397000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>544000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-218000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-587000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>135000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-58000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>110000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-132000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-40000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-465000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>860000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>31000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-585000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>88000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>370000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>271000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-254000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-488000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1311000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>224000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44197</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44106</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44015</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43924</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43833</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43742</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43462</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43098</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42734</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1860000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1887000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2035000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2628000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2802000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3116000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3115000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3013000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2731000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2623000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2314000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2517000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2718000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2696000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2578000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2371000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2313000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2715000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2991000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2835000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2803000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2914000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2632000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2406000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2674000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2894000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1541000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1641000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1553000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1869000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1996000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2168000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2159000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2128000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1991000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1927000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1718000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1850000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1972000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1907000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1747000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1712000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1921000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2078000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1931000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1956000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2037000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1896000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1740000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1858000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2003000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E10" s="3">
         <v>246000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>482000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>759000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>806000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>948000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>956000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>885000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>740000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>696000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>596000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>667000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>746000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>758000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>671000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>624000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>601000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>794000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>913000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>904000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>847000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>877000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>736000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>666000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>816000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>891000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,91 +1066,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E12" s="3">
         <v>200000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>234000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>247000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>233000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>228000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>233000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>232000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>227000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>221000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>223000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>222000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>246000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>250000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>255000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>241000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>238000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>246000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>266000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>259000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>254000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>250000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>263000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>288000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>324000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>305000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,91 +1236,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-123000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>1000</v>
       </c>
       <c r="J14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>63000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-63000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-6000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>33000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>51000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>14000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>48000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>33000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>3000</v>
@@ -1344,22 +1367,22 @@
         <v>3000</v>
       </c>
       <c r="P15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" s="3">
         <v>4000</v>
       </c>
       <c r="R15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="S15" s="3">
         <v>6000</v>
       </c>
       <c r="T15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U15" s="3">
         <v>5000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>6000</v>
       </c>
       <c r="V15" s="3">
         <v>6000</v>
@@ -1368,16 +1391,16 @@
         <v>6000</v>
       </c>
       <c r="X15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y15" s="3">
         <v>19000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>22000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>19000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>28000</v>
       </c>
       <c r="AB15" s="3">
         <v>28000</v>
@@ -1385,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1843000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1928000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2268000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2373000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2536000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2529000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2506000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2345000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2275000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2063000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2250000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2342000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2312000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2305000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2039000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2077000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2299000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2488000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2330000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2362000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2481000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2377000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2210000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2408000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2524000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="E18" s="3">
         <v>44000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>360000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>429000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>580000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>586000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>507000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>386000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>251000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>267000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>376000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>384000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>273000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>332000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>236000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>416000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>503000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>505000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>441000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>433000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>255000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>196000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>266000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>370000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1610,194 +1643,201 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-58000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>38000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>23000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-10000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E21" s="3">
         <v>187000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>233000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>473000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>526000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>684000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>696000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>659000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>497000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>439000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>370000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>309000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>481000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>477000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>345000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>480000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>405000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>592000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>660000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>657000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>596000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>589000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>410000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>358000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>454000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>551000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E22" s="3">
         <v>77000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>71000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>65000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>63000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>62000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>59000</v>
       </c>
       <c r="J22" s="3">
         <v>59000</v>
@@ -1806,22 +1846,22 @@
         <v>59000</v>
       </c>
       <c r="L22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>49000</v>
       </c>
       <c r="O22" s="3">
         <v>49000</v>
       </c>
       <c r="P22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>55000</v>
       </c>
       <c r="R22" s="3">
         <v>55000</v>
@@ -1830,203 +1870,212 @@
         <v>55000</v>
       </c>
       <c r="T22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="U22" s="3">
         <v>56000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>58000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>54000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>60000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>61000</v>
       </c>
       <c r="Y22" s="3">
         <v>61000</v>
       </c>
       <c r="Z22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>62000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>60000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>50000</v>
       </c>
       <c r="AC22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-38000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>281000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>351000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>514000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>533000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>497000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>339000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>291000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>221000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>160000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>338000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>336000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>198000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>291000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>398000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>468000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>466000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>393000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>371000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>188000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>120000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>212000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>310000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5000</v>
       </c>
       <c r="G24" s="3">
         <v>5000</v>
       </c>
       <c r="H24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I24" s="3">
         <v>13000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>18000</v>
       </c>
       <c r="P24" s="3">
         <v>18000</v>
       </c>
       <c r="Q24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-692000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-307000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>18000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2108,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>276000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>346000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>501000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>526000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>482000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>329000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>280000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>223000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>166000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>320000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>318000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>983000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>195000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>384000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>450000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>773000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>385000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>367000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>181000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>114000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>194000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>297000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>276000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>346000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>501000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>526000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>482000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>329000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>280000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>223000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>166000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>320000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>318000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>983000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>195000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>384000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>450000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>773000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>385000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>367000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>181000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>114000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>194000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>297000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2357,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2398,17 +2459,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2416,17 +2477,17 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-312000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2440,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,174 +2673,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>58000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-38000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-23000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>14000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>10000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>346000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>501000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>526000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>482000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>329000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>280000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>223000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>166000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>320000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>318000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>983000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>195000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>384000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>450000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>461000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>381000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>159000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>181000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>114000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>194000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>297000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>346000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>501000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>526000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>482000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>329000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>280000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>223000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>166000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>320000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>318000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>983000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>195000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>384000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>450000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>461000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>381000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>159000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>181000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>114000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>194000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>297000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44197</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44106</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44015</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43924</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43833</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43742</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43462</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43098</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42734</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3088,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E41" s="3">
         <v>770000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>761000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>615000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1138000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1535000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>991000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1209000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1212000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1799000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1664000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1722000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1612000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1744000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1784000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2220000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1388000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1357000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1942000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1853000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2926000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2556000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2285000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2539000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3026000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1716000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3252,342 +3342,357 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>994000</v>
+      </c>
+      <c r="E43" s="3">
         <v>840000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1098000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1532000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1344000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1399000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1301000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1158000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>978000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>801000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>866000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1115000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1160000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1065000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>989000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>897000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1058000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1202000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1184000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1076000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1209000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1199000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1156000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1211000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1194000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1606000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1565000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1479000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1287000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1188000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1204000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1281000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1318000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1323000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1142000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1102000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1041000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>970000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1001000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1097000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1116000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1053000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1014000</v>
       </c>
       <c r="Y44" s="3">
         <v>1014000</v>
       </c>
       <c r="Z44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="AA44" s="3">
         <v>982000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1038000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1008000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E45" s="3">
         <v>277000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>275000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>321000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>298000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>229000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>208000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>221000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>163000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>141000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>135000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>141000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>148000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>141000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>184000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>201000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>164000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>263000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>220000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>243000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>285000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>316000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>321000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>240000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>205000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3597000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3081000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3740000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4033000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4259000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4450000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3668000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3779000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3692000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4081000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3994000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4114000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4015000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4152000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4031000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4363000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3487000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3676000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4523000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4310000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5247000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4910000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4824000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5041000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5460000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4140000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3637,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>1318000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1300000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1259000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>24</v>
@@ -3669,174 +3774,183 @@
       <c r="AC47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2122000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2196000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2333000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2197000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2216000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2213000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2278000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2317000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2323000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2270000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2232000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2158000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2102000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1869000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1822000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1823000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1789000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1792000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1720000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1762000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1817000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1875000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1911000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2012000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1240000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1242000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1246000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1251000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1256000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1261000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1266000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1272000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1277000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1282000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1295000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1307000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1320000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1334000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1348000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1366000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1386000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1406000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1425000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1442000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1460000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1492000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1519000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1560000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1601000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3918,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4001,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1424000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1433000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1332000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1438000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1453000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1471000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1352000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1323000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1305000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1316000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1289000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1307000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1271000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1305000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>603000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>604000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>601000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>608000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>603000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>618000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>823000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>833000</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>808000</v>
       </c>
       <c r="AB52" s="3">
         <v>808000</v>
       </c>
       <c r="AC52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="AD52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7967000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7867000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8611000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8944000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9145000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9375000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8613000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8604000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8986000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8862000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8930000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8829000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8932000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8738000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8885000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8596000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8789000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9578000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9410000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9012000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8750000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8956000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9268000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9739000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8561000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4281,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4312,111 +4442,115 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1085000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1712000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2058000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1948000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1812000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1766000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1725000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1861000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1730000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1795000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1808000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1830000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1870000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1750000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1420000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1310000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1442000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1776000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1728000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1645000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1620000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1539000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1626000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>636000</v>
+        <v>1118000</v>
       </c>
       <c r="E58" s="3">
         <v>636000</v>
       </c>
       <c r="F58" s="3">
+        <v>636000</v>
+      </c>
+      <c r="G58" s="3">
         <v>584000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>235000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>245000</v>
       </c>
       <c r="J58" s="3">
         <v>245000</v>
@@ -4425,23 +4559,23 @@
         <v>245000</v>
       </c>
       <c r="L58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="M58" s="3">
         <v>25000</v>
       </c>
       <c r="N58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="O58" s="3">
         <v>19000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4452,366 +4586,381 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>499000</v>
       </c>
       <c r="W58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="X58" s="3">
         <v>503000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>560000</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB58" s="3">
         <v>158000</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1004000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>790000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>913000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>903000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>945000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>878000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>951000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>887000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>866000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>824000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>895000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>848000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>824000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>799000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>812000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>836000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>858000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>963000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>907000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>933000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>919000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1040000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1050000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3639000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2725000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3138000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3555000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2881000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2992000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2889000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2921000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2993000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2621000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2644000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2722000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2690000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2549000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2232000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2146000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3175000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3190000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3055000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3113000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2458000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2626000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2789000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2681000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4840000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5393000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5613000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5062000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5614000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5626000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4891000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4894000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4897000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5120000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4138000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4156000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4091000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4135000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4140000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4253000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4522000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4324000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4322000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4320000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4319000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4316000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5002000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5021000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5073000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4093000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E62" s="3">
         <v>219000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>211000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>218000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>229000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>232000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>229000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>230000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>255000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>259000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>265000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>256000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>267000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>279000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>238000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>239000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>231000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>235000</v>
       </c>
       <c r="V62" s="3">
         <v>235000</v>
       </c>
       <c r="W62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="X62" s="3">
         <v>274000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>260000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>254000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>257000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>269000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>264000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4893,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4976,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5059,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8971000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8337000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8962000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8835000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8724000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8849000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8012000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8044000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8120000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7996000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7041000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7143000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7037000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7102000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6968000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6723000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6907000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6855000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7732000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7745000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7648000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7689000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7714000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7904000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8131000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7038000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5256,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5339,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5422,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5505,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8430000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7850000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7672000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7117000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6767000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6533000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5837,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1004000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-470000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-351000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>421000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>526000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>601000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>631000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>990000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1821000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1787000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1792000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1830000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1770000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2162000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1689000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1934000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1846000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1665000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1364000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1061000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1242000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1364000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1608000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1523000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6003,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44197</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44106</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44015</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43924</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43833</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43742</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43462</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43098</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42734</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-433000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>346000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>501000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>526000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>482000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>329000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>280000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>223000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>166000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>320000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>318000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>983000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>195000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>384000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>450000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>461000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>381000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>159000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>181000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>114000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>194000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>297000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6205,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E83" s="3">
         <v>148000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>135000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>127000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>108000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>104000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>103000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>96000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>94000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>92000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>134000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>135000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>138000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>134000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>137000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>143000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>157000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>161000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>176000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>182000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>191000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6371,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6454,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6537,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6620,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6703,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E89" s="3">
         <v>251000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>245000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>180000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>460000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>521000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>496000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>478000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>378000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>473000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>297000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>388000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>390000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>480000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>456000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>448000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>438000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>288000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>587000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>468000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>558000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>850000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>237000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>243000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>426000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>655000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6817,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-79000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-133000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-97000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-95000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-117000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-124000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-159000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-114000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-130000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-147000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-151000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-147000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-127000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-177000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-96000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-69000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-124000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-104000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-94000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-96000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6983,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7066,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-76000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-120000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-106000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-159000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-104000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-108000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-142000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-151000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1205000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-129000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-176000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-78000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-132000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-122000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-103000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-95000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7180,8 +7413,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7189,82 +7423,85 @@
         <v>-145000</v>
       </c>
       <c r="E96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-147000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-152000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-154000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-151000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-154000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-161000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-167000</v>
       </c>
       <c r="M96" s="3">
         <v>-167000</v>
       </c>
       <c r="N96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-168000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-170000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-165000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-170000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-174000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-178000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-181000</v>
       </c>
       <c r="V96" s="3">
         <v>-181000</v>
       </c>
       <c r="W96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-179000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-182000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-184000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-187000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-186000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-188000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7346,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7429,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7512,91 +7755,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-165000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-644000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-760000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>99000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-594000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-375000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-868000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-179000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-251000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-177000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-374000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-765000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-795000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-276000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-815000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-326000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-184000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-162000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-502000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-363000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-617000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>984000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-324000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7631,134 +7880,140 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>146000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-523000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-397000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>544000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-218000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-587000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>135000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-132000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-465000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>860000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-585000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>88000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>370000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>271000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-254000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-488000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1311000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>224000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>364000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,391 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44197</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44106</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44015</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43924</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43833</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43742</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43462</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43098</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42734</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1860000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1887000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2035000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2628000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2802000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3116000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3115000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3013000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2731000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2623000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2314000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2517000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2696000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2578000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2371000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2313000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2715000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2991000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2835000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2803000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2914000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2632000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2406000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2674000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2894000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2797000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1541000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1641000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1553000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1869000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1996000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2168000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2159000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2128000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1991000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1927000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1718000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1850000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1972000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1938000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1907000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1747000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1712000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1921000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2078000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1931000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1956000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2037000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1896000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1740000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1858000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2003000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1996000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E10" s="3">
         <v>319000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>246000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>482000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>759000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>806000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>948000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>956000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>885000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>740000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>696000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>596000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>667000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>746000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>758000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>671000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>624000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>601000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>794000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>913000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>904000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>847000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>877000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>736000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>666000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>816000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>891000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,94 +1080,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E12" s="3">
         <v>191000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>234000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>247000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>233000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>228000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>233000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>232000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>227000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>221000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>223000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>222000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>246000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>250000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>255000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>241000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>238000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>246000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>266000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>259000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>254000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>250000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>263000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>288000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>324000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>305000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>315000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1239,94 +1256,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>317000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-123000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>1000</v>
       </c>
       <c r="K14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>63000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-63000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-6000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>33000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>51000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>14000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>48000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>33000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>82000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>3000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3000</v>
       </c>
       <c r="I15" s="3">
         <v>3000</v>
@@ -1370,22 +1393,22 @@
         <v>3000</v>
       </c>
       <c r="Q15" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="R15" s="3">
         <v>4000</v>
       </c>
       <c r="S15" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="T15" s="3">
         <v>6000</v>
       </c>
       <c r="U15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V15" s="3">
         <v>5000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>6000</v>
       </c>
       <c r="W15" s="3">
         <v>6000</v>
@@ -1394,16 +1417,16 @@
         <v>6000</v>
       </c>
       <c r="Y15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z15" s="3">
         <v>19000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>22000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>19000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>28000</v>
       </c>
       <c r="AC15" s="3">
         <v>28000</v>
@@ -1411,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1593000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2172000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1843000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1928000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2268000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2373000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2536000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2529000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2506000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2345000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2275000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2063000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2250000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2342000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2312000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2305000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2039000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2077000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2299000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2488000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2330000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2362000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2481000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2377000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2210000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2408000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2524000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2576000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-312000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>360000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>429000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>580000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>586000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>507000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>386000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>251000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>267000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>376000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>384000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>273000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>332000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>236000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>416000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>503000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>505000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>441000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>433000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>255000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>196000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>266000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>370000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1644,203 +1677,210 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-58000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>38000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>23000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-10000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-193000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>187000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>233000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>473000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>526000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>684000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>696000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>659000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>497000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>439000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>370000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>309000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>481000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>477000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>345000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>480000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>405000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>592000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>660000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>657000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>596000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>589000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>410000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>358000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>454000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>551000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>423000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3">
         <v>81000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>77000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>71000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>65000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>63000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>62000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>59000</v>
       </c>
       <c r="K22" s="3">
         <v>59000</v>
@@ -1849,22 +1889,22 @@
         <v>59000</v>
       </c>
       <c r="M22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>49000</v>
       </c>
       <c r="P22" s="3">
         <v>49000</v>
       </c>
       <c r="Q22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R22" s="3">
         <v>48000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>55000</v>
       </c>
       <c r="S22" s="3">
         <v>55000</v>
@@ -1873,209 +1913,218 @@
         <v>55000</v>
       </c>
       <c r="U22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="V22" s="3">
         <v>56000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>58000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>54000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>60000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>61000</v>
       </c>
       <c r="Z22" s="3">
         <v>61000</v>
       </c>
       <c r="AA22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>62000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>60000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>50000</v>
       </c>
       <c r="AD22" s="3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>281000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>351000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>514000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>533000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>497000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>339000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>291000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>221000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>160000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>338000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>336000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>198000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>291000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>215000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>398000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>468000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>466000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>393000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>371000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>188000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>120000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>212000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>310000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>173000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5000</v>
       </c>
       <c r="H24" s="3">
         <v>5000</v>
       </c>
       <c r="I24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="3">
         <v>13000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>18000</v>
       </c>
       <c r="Q24" s="3">
         <v>18000</v>
       </c>
       <c r="R24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-692000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-307000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>18000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-433000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>276000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>346000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>501000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>526000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>482000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>329000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>280000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>223000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>166000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>320000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>318000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>983000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>195000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>384000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>450000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>773000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>385000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>367000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>181000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>114000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>194000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>297000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-433000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>276000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>346000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>501000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>526000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>482000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>329000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>280000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>223000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>166000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>320000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>318000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>983000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>195000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>384000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>450000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>773000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>385000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>367000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>181000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>114000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>194000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>297000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2418,8 +2476,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2462,17 +2523,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2480,17 +2541,17 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-312000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-208000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2504,8 +2565,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>58000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-38000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-23000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>14000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>10000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-433000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>346000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>501000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>526000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>482000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>329000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>280000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>223000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>166000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>320000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>318000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>983000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>195000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>384000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>450000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>461000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>381000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>159000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>181000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>114000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>194000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>297000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-433000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>346000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>501000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>526000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>482000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>329000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>280000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>223000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>166000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>320000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>318000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>983000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>195000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>384000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>450000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>461000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>381000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>159000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>181000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>114000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>194000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>297000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44197</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44106</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44015</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43924</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43833</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43742</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43462</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43098</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42734</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E41" s="3">
         <v>766000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>770000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>761000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>615000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1138000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1535000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>991000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1209000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1212000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1799000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1664000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1722000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1612000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1744000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1784000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2220000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1388000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1357000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1942000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1853000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2926000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2556000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2285000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2539000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3026000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1716000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3345,354 +3435,369 @@
         <v>0</v>
       </c>
       <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E43" s="3">
         <v>994000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>840000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1098000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1532000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1344000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1399000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1301000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1158000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>978000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>801000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>866000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1115000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1160000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1112000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1065000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>989000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>897000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1058000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1202000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1184000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1076000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1209000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1199000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1156000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1211000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1307000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1194000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1606000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1565000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1479000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1287000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1188000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1204000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1281000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1318000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1323000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1142000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1148000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1041000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>970000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1001000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1097000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1116000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1053000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1002000</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>1014000</v>
       </c>
       <c r="Z44" s="3">
         <v>1014000</v>
       </c>
       <c r="AA44" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="AB44" s="3">
         <v>982000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1038000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1008000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>914000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E45" s="3">
         <v>637000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>277000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>275000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>321000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>298000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>229000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>188000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>208000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>221000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>163000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>141000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>135000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>141000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>148000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>141000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>184000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>201000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>164000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>263000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>220000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>243000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>285000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>316000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>321000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>240000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>205000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>213000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3597000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3081000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3740000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4033000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4259000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4450000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3668000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3779000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3692000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4081000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3994000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4114000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4015000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4152000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4031000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4363000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3487000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3676000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4523000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4310000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5247000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4910000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4824000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5041000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5460000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4140000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3745,19 +3850,19 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>1318000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1300000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1259000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1275000</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>24</v>
@@ -3777,180 +3882,189 @@
       <c r="AD47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1753000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2122000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2196000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2333000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2197000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2216000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2213000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2278000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2317000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2323000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2270000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2232000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2158000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2102000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1869000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1822000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1823000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1789000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1792000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1720000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1762000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1817000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1875000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1911000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2012000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2093000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1238000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1240000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1242000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1246000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1251000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1256000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1261000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1266000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1272000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1277000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1282000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1295000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1320000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1334000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1348000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1366000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1386000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1406000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1425000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1442000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1460000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1492000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1519000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1560000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1601000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1643000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,94 +4238,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1379000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1424000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1433000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1332000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1438000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1453000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1471000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1352000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1323000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1305000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1316000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1289000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1302000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1271000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1305000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>603000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>604000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>601000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>608000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>603000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>618000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>823000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>833000</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>808000</v>
       </c>
       <c r="AC52" s="3">
         <v>808000</v>
       </c>
       <c r="AD52" s="3">
+        <v>808000</v>
+      </c>
+      <c r="AE52" s="3">
         <v>831000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7556000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7967000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7867000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8611000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8944000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9145000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9375000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8613000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8675000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8604000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8986000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8862000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8930000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8829000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8932000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8738000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8885000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8596000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8789000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9578000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9410000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9012000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8750000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8956000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9268000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9739000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8561000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8495000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,117 +4573,121 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1697000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1085000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1712000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2058000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1948000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1812000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1766000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1725000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1861000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1730000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1795000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1808000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1830000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1870000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1750000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1420000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1310000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1442000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1776000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1728000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1645000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1620000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1539000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1626000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1591000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1568000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1118000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>636000</v>
       </c>
       <c r="F58" s="3">
         <v>636000</v>
       </c>
       <c r="G58" s="3">
+        <v>636000</v>
+      </c>
+      <c r="H58" s="3">
         <v>584000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>235000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>245000</v>
       </c>
       <c r="K58" s="3">
         <v>245000</v>
@@ -4562,23 +4696,23 @@
         <v>245000</v>
       </c>
       <c r="M58" s="3">
-        <v>25000</v>
+        <v>245000</v>
       </c>
       <c r="N58" s="3">
         <v>25000</v>
       </c>
       <c r="O58" s="3">
+        <v>25000</v>
+      </c>
+      <c r="P58" s="3">
         <v>19000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -4589,378 +4723,393 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>499000</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>499000</v>
       </c>
       <c r="X58" s="3">
+        <v>499000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>503000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>560000</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC58" s="3">
         <v>158000</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>926000</v>
+      </c>
+      <c r="E59" s="3">
         <v>824000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1004000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>790000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>913000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>903000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>945000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>878000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>951000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>887000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>866000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>824000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>895000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>848000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>824000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>799000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>812000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>836000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>858000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>963000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>907000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>933000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>919000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1040000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1050000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3639000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2725000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3138000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3555000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2881000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2992000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2889000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2921000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2993000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2621000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2644000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2722000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2690000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2549000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2232000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2146000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3175000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3190000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3055000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3113000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2458000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2626000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2789000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2681000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2608000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5388000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4840000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5393000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5613000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5062000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5614000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5626000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4891000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4894000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4897000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5120000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4138000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4156000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4091000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4135000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4140000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4253000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4522000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4324000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4322000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4320000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4319000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4316000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5002000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5021000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5073000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4093000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4092000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E62" s="3">
         <v>492000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>211000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>229000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>231000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>232000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>229000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>230000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>255000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>259000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>265000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>256000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>267000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>279000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>238000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>239000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>231000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>235000</v>
       </c>
       <c r="W62" s="3">
         <v>235000</v>
       </c>
       <c r="X62" s="3">
+        <v>235000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>274000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>260000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>254000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>257000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>269000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>264000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>271000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5131,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8755000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8971000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8337000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8962000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8835000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8724000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8849000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8012000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8044000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8120000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7996000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7041000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7143000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7037000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7102000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6968000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6723000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6907000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6855000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7732000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7745000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7648000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7689000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7714000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7904000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8131000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7038000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6971000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8670000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8430000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7850000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7672000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7117000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6767000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6533000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6398000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6305000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6417000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5829000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4947000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4904000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4866000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4804000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4800000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4349000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4808000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4502000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4569000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4696000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4975000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5174000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4958000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4771000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4487000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4493000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4456000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1199000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1004000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-470000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-351000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>109000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>421000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>526000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>601000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>631000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>484000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>990000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1821000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1787000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1792000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1830000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1770000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2162000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1689000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1934000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1846000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1665000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1364000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1061000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1242000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1364000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1608000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1523000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1524000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44197</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44106</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44015</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43924</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43833</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43742</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43462</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43098</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42734</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-433000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>346000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>501000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>526000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>482000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>329000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>280000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>223000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>166000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>320000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>318000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>983000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>195000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>384000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>450000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>461000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>381000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>159000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>181000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>114000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>194000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>297000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>167000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E83" s="3">
         <v>126000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>135000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>127000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>108000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>99000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>96000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>94000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>92000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>134000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>135000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>138000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>134000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>137000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>143000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>157000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>161000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>176000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>182000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>191000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E89" s="3">
         <v>229000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>251000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>245000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>180000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>460000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>521000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>496000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>478000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>378000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>473000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>297000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>388000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>390000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>480000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>456000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>448000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>438000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>288000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>587000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>468000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>558000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>850000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>237000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>243000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>426000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>655000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>592000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-133000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-97000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-95000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-117000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-124000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-104000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-159000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-114000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-194000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-147000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-151000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-147000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-127000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-177000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-96000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-124000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-104000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-94000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-96000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-133000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-97000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-76000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-120000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-106000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-159000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-108000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-142000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-234000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-151000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1205000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-129000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-176000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1349000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-78000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-132000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-122000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-103000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-95000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7647,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7426,82 +7660,85 @@
         <v>-145000</v>
       </c>
       <c r="F96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-147000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-154000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-151000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-154000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-161000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-167000</v>
       </c>
       <c r="N96" s="3">
         <v>-167000</v>
       </c>
       <c r="O96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-168000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-170000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-165000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-170000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-174000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-178000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-180000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-181000</v>
       </c>
       <c r="W96" s="3">
         <v>-181000</v>
       </c>
       <c r="X96" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-179000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-182000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-184000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-187000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-186000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-188000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,94 +8001,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-667000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-190000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-165000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-644000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-760000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>99000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-594000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-375000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-868000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-179000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-251000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-177000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-289000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-765000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-795000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-276000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-815000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-326000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-184000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-162000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-502000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-363000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-617000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>984000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-324000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7883,137 +8132,143 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>146000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-523000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-397000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>544000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-218000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-587000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>135000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-465000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>860000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-585000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>88000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1073000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>370000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>271000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-254000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-488000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1311000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>224000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>364000</v>
       </c>
     </row>
